--- a/Supplemental Files/File S5.xlsx
+++ b/Supplemental Files/File S5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Box Sync/Lab_Hallem/Astra/Writing/Bryant and Hallem 2021/Figures and Files/Supplemental Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant-and-Hallem-2021/Supplemental Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7BB72-1548-D14D-ADE6-2916778451E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A65BDBC-466E-E942-97BF-FAAFCB03C0F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22020" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Least-adapted genes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="175">
   <si>
     <t>Source</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Term Name</t>
   </si>
   <si>
+    <t>Contributing Genes</t>
+  </si>
+  <si>
     <t>GO:BP</t>
   </si>
   <si>
@@ -43,18 +46,27 @@
     <t>DNA metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0001269900.1,SSTP_0000639200.1,SSTP_0000985700.1,SSTP_0000441300.1,SSTP_0001178000.5,SSTP_0000487800.1,SSTP_0000644300.1,SSTP_0000699200.1,SSTP_0001278000.1,SSTP_0001039100.1,SSTP_0000688700.1,SSTP_0000532300.1,SSTP_0000665900.1,SSTP_0000932500.1, SRAE_0000079000,SRAE_0000078200,SRAE_0000068100,SRAE_0000046800,SRAE_X000232700,SRAE_0000073700,SRAE_0000068900,SRAE_X000240100,SRAE_X000200500,SRAE_X000199300,SRAE_0000051500,SRAE_0000052200,SRAE_X000233800,SRAE_0000072800,SRAE_X000233500,SRAE_X000232600,SRAE_0000072000,SRAE_0000058000,SRAE_X000141000,SRAE_X000237300,SRAE_0000059400,SRAE_0000062600,SRAE_X000199700,SRAE_2000127600,SRAE_2000416000,SRAE_1000197400,SRAE_0000060700,SRAE_X000236400,SRAE_0000058100,SRAE_0000059300,SRAE_0000064100,SRAE_0000066700,SRAE_0000052000,SRAE_0000046300,SRAE_0000053700,SRAE_X000236300, SPAL_0001104200.1,SPAL_0000882400.3,SPAL_0000388300.1,SPAL_0001094400.1,SPAL_0001140300.1,SPAL_0000993400.1,SPAL_0001123000.1,SPAL_0000958700.1,SPAL_0001330500.1,SPAL_0000134500.1,SPAL_0000721600.1,SPAL_0000068700.1,SPAL_0000132800.1,SPAL_0001283900.1,SPAL_0000480700.1, SVE_0032300.1,SVE_1106800.1,SVE_1964200.1,SVE_1099100.1,SVE_0775500.1,SVE_0685700.1,SVE_0839400.1,SVE_0647100.1,SVE_0832100.1,SVE_1663200.1,SVE_1156900.1,SVE_1542200.1,SVE_0831000.1,SVE_1661200.1, M163.3,B0035.7,F54E12.5a,H02I12.7,F22F1.1,Y48B6A.14,F45F2.4,F07B7.3,F07B7.10,K06C4.3,K06C4.11,F17E9.13,F35H10.1,F08G2.2,ZK131.6,ZK131.10,T23D8.6,Y73B6BL.9a,F55G1.10,T10C6.12</t>
+  </si>
+  <si>
     <t>GO:0015074</t>
   </si>
   <si>
     <t>DNA integration</t>
   </si>
   <si>
+    <t>SSTP_0001269900.1,SSTP_0000639200.1,SSTP_0000985700.1,SSTP_0000441300.1,SSTP_0001178000.5,SSTP_0000487800.1,SSTP_0000644300.1,SSTP_0000699200.1,SSTP_0001278000.1,SSTP_0001039100.1,SSTP_0000688700.1,SSTP_0000532300.1,SSTP_0000665900.1,SSTP_0000932500.1, SRAE_0000079000,SRAE_0000078200,SRAE_X000232700,SRAE_0000073700,SRAE_0000068900,SRAE_X000240100,SRAE_X000200500,SRAE_X000199300,SRAE_0000052200,SRAE_0000072800,SRAE_X000141000,SRAE_0000062600,SRAE_X000199700,SRAE_2000127600,SRAE_1000197400,SRAE_0000058100,SRAE_0000059300,SRAE_0000064100,SRAE_0000066700,SRAE_0000052000,SRAE_0000046300,SRAE_X000236300, SPAL_0000882400.3,SPAL_0001094400.1,SPAL_0001140300.1,SPAL_0001123000.1,SPAL_0000958700.1,SPAL_0001330500.1,SPAL_0000134500.1,SPAL_0000721600.1,SPAL_0000068700.1,SPAL_0000132800.1,SPAL_0001283900.1, SVE_0032300.1,SVE_1106800.1,SVE_1964200.1,SVE_1099100.1,SVE_0775500.1,SVE_0839400.1,SVE_0647100.1,SVE_0832100.1,SVE_1663200.1,SVE_1542200.1,SVE_0831000.1,SVE_1661200.1</t>
+  </si>
+  <si>
     <t>GO:0090304</t>
   </si>
   <si>
     <t>nucleic acid metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0001269900.1,SSTP_0000124500.1,SSTP_0000639200.1,SSTP_0000985700.1,SSTP_0000441300.1,SSTP_0001208100.1,SSTP_0001178000.5,SSTP_0000347100.1,SSTP_0000064900.1,SSTP_0000487800.1,SSTP_0000644300.1,SSTP_0000696800.1,SSTP_0000699200.1,SSTP_0001278000.1,SSTP_0001039100.1,SSTP_0000462700.1,SSTP_0000688700.1,SSTP_0000532300.1,SSTP_0000665900.1,SSTP_0000141900.1,SSTP_0000932500.1, SRAE_0000079000,SRAE_0000078200,SRAE_0000068100,SRAE_0000046800,SRAE_X000232700,SRAE_0000073700,SRAE_0000068900,SRAE_X000240100,SRAE_X000200500,SRAE_X000199300,SRAE_0000051500,SRAE_0000052200,SRAE_X000233800,SRAE_0000072800,SRAE_X000233500,SRAE_X000232600,SRAE_0000072000,SRAE_0000058000,SRAE_X000141000,SRAE_X000237300,SRAE_0000059400,SRAE_0000062600,SRAE_X000199700,SRAE_2000127600,SRAE_2000416000,SRAE_1000197400,SRAE_0000060700,SRAE_X000236400,SRAE_0000058100,SRAE_1000161900,SRAE_0000059300,SRAE_0000064100,SRAE_0000066700,SRAE_0000052000,SRAE_X000140900,SRAE_0000046300,SRAE_2000177700,SRAE_0000053700,SRAE_2000296700,SRAE_X000236300, SPAL_0001104200.1,SPAL_0000882400.3,SPAL_0001064500.1,SPAL_0000724300.1,SPAL_0000388100.1,SPAL_0000388300.1,SPAL_0001094400.1,SPAL_0000627200.1,SPAL_0001140300.1,SPAL_0000993400.1,SPAL_0001123000.1,SPAL_0000958700.1,SPAL_0000739600.1,SPAL_0001330500.1,SPAL_0000253000.1,SPAL_0000579300.1,SPAL_0000807700.1,SPAL_0000900000.1,SPAL_0000134500.1,SPAL_0000721600.1,SPAL_0000068700.1,SPAL_0000132800.1,SPAL_0000186400.1,SPAL_0001283900.1,SPAL_0000480700.1, SVE_0032300.1,SVE_1106800.1,SVE_0677700.1,SVE_1964200.1,SVE_1099100.1,SVE_0775500.1,SVE_1940100.1,SVE_0685700.1,SVE_0593300.1,SVE_0839400.1,SVE_0647100.1,SVE_0832100.1,SVE_1663200.1,SVE_1156900.1,SVE_1542200.1,SVE_0831000.1,SVE_1661200.1</t>
+  </si>
+  <si>
     <t>GO:MF</t>
   </si>
   <si>
@@ -64,36 +76,54 @@
     <t>nucleic acid binding</t>
   </si>
   <si>
+    <t>SSTP_0001269900.1,SSTP_0000701100.1,SSTP_0000704833.1,SSTP_0001269800.1,SSTP_0000884800.1,SSTP_0000124500.1,SSTP_0000842500.1,SSTP_0001130800.1,SSTP_0000985800.1,SSTP_0000644700.1,SSTP_0000004650.1,SSTP_0000639200.1,SSTP_0000287200.1,SSTP_0000990700.1,SSTP_0000985700.1,SSTP_0000441300.1,SSTP_0001208100.1,SSTP_0001178000.5,SSTP_0000064900.1,SSTP_0000487800.1,SSTP_0000644300.1,SSTP_0000696800.1,SSTP_0000699200.1,SSTP_0001278000.1,SSTP_0001039100.1,SSTP_0000636200.1,SSTP_0000688700.1,SSTP_0000532300.1,SSTP_0000665900.1,SSTP_0000141900.1,SSTP_0000932500.1, SRAE_X000233000,SRAE_0000079000,SRAE_0000078200,SRAE_X000232700,SRAE_0000073700,SRAE_0000068900,SRAE_X000240100,SRAE_X000200500,SRAE_0000063000,SRAE_X000199300,SRAE_0000047000,SRAE_0000052200,SRAE_0000072800,SRAE_0000049600,SRAE_0000049700,SRAE_0000072000,SRAE_0000047200,SRAE_X000141000,SRAE_0000059400,SRAE_0000062600,SRAE_X000199700,SRAE_2000127600,SRAE_2000416000,SRAE_1000197400,SRAE_X000199900,SRAE_X000199800,SRAE_2000366600,SRAE_X000236400,SRAE_0000058100,SRAE_0000059300,SRAE_0000064100,SRAE_0000066700,SRAE_0000052000,SRAE_X000140900,SRAE_0000046300,SRAE_2000048600,SRAE_0000059200,SRAE_2000177700,SRAE_X000236500,SRAE_2000296700,SRAE_1000173600,SRAE_X000236300, SPAL_0000882400.3,SPAL_0001064500.1,SPAL_0000724300.1,SPAL_0000881000.1,SPAL_0000209900.1,SPAL_0001779100.1,SPAL_0001094400.1,SPAL_0000104300.1,SPAL_0001571200.1,SPAL_0000627200.1,SPAL_0001140300.1,SPAL_0001123000.1,SPAL_0000852300.1,SPAL_0001121500.1,SPAL_0000435200.1,SPAL_0000817300.1,SPAL_0000855800.1,SPAL_0001450200.1,SPAL_0000959200.1,SPAL_0000958700.1,SPAL_0000739600.1,SPAL_0000535600.1,SPAL_0001330500.1,SPAL_0000566100.1,SPAL_0000351100.1,SPAL_0000253000.1,SPAL_0000579300.1,SPAL_0000134500.1,SPAL_0000721600.1,SPAL_0001449000.1,SPAL_0000068700.1,SPAL_0000132800.1,SPAL_0001283900.1,SPAL_0000480700.1,SPAL_0000846000.1, SVE_1669600.1,SVE_1669500.1,SVE_0032300.1,SVE_1121400.1,SVE_1106800.1,SVE_1121300.1,SVE_0677700.1,SVE_1964200.1,SVE_1099100.1,SVE_0775500.1,SVE_0685700.1,SVE_0196800.1,SVE_0593300.1,SVE_0839400.1,SVE_0647100.1,SVE_0832100.1,SVE_1663200.1,SVE_1704800.1,SVE_1542200.1,SVE_0831000.1,SVE_1310700.1,SVE_1662000.1,SVE_1661200.1, R03G5.1,F31E3.5,F55D10.2,C27A2.2a,Y43B11AR.4,D1007.12,F55G1.3,R06C1.4,F54H12.6,F54C9.1,F17E9.9,F35H10.11,JC8.3a,B0336.10,C23G10.3,M163.3,F45F2.2,C01B10.5c,K11H12.2,F39B2.6,F07D10.1,R13A5.8,C16A3.9,F25H2.10,F28C6.7a,T05E11.1,B0041.4,F13B10.2a,R09B3.3,F45F2.13,F37C12.9,R09B3.2,Y24D9A.4,F54E12.4,H02I12.6,D1007.6,Y106G6H.3c,F56E10.4,F53G12.10,T10C6.13,K03A1.1,F07B7.5,K06C4.13,K06C4.5,B0035.7,F54E12.5a,H02I12.7,W09H1.2,B0035.8,F08G2.1,ZK131.5,ZK131.9,F54C9.5,Y45F10D.12,F07B7.4,F07B7.11,K06C4.4,K06C4.12,C49H3.11,F25H5.4b,F45F2.12,F17E9.10,Y41E3.10a,Y57G11C.16,Y49E10.6a,F22F1.1,T05G5.10b,Y48B6A.14,R151.3,F17C11.9a,F55G1.2,Y71F9AL.13b,ZK652.4,B0250.1,C32E8.2a,F36A2.6,F45F2.3,F45F2.4,T10C6.11,F07B7.9,K06C4.2,C04F12.4,F07B7.3,F07B7.10,K06C4.3,K06C4.11,F17E9.13,F35H10.1,F08G2.2,ZK131.6,ZK131.10,K06C4.10,T05F1.3,T01C3.6,M28.5,M01F1.2,F40F8.10,F52B5.6,W01D2.1,T23D8.6,W08E12.7,R08C7.3,T22F3.4b,C54C6.1,Y73B6BL.9a,F57B9.6b,Y71F9B.4,B0035.9,F54E12.3,F55G1.11,C09D4.5,K11D9.2b,F55G1.10,T10C6.12,F22B3.2,B0035.10,F54E12.1,T10C6.14,ZK131.2,ZK131.3,ZK131.7,F08G2.3,F22B3.1,K03A1.6</t>
+  </si>
+  <si>
     <t>GO:0006412</t>
   </si>
   <si>
     <t>translation</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t>GO:0006518</t>
   </si>
   <si>
     <t>peptide metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t>GO:0009058</t>
   </si>
   <si>
     <t>biosynthetic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000978600,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000992800,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0001046300,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000042400,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_2000221200,SRAE_2000314600,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_X000250000,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_X000079300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000292600,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0000451900,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0001504900,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
+  </si>
+  <si>
     <t>GO:0009059</t>
   </si>
   <si>
     <t>macromolecule biosynthetic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000163600,SPAL_0000969250,SPAL_0000388400,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
+  </si>
+  <si>
     <t>GO:0009144</t>
   </si>
   <si>
     <t>purine nucleoside triphosphate metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0000823300,SSTP_0000428100,SSTP_0000556300,SSTP_0000239700,SSTP_0000076400,SSTP_0001181600, SRAE_2000256800,SRAE_2000334600,SRAE_1000278400,SRAE_2000443400,SRAE_2000061100,SRAE_1000255700, SPAL_0000995200,SPAL_0000219500,SPAL_0001728100,SPAL_0000655400,SPAL_0000317800,SPAL_0000864500,SPAL_0000810100</t>
+  </si>
+  <si>
     <t>GO:0009145</t>
   </si>
   <si>
@@ -118,18 +148,27 @@
     <t>gene expression</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_2000132300,SRAE_1000211500,SRAE_2000435600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_0000022800,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000145500,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600,SRAE_2000050800,SRAE_0000015400,SRAE_2000351900, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0001641000,SPAL_0000317400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000163600,SPAL_0000969250,SPAL_0000388400,SPAL_0001647700,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t>GO:0019538</t>
   </si>
   <si>
     <t>protein metabolic process</t>
   </si>
   <si>
+    <t>SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000150700,SRAE_2000424200,SRAE_2000486000,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000421600,SRAE_2000440600,SRAE_2000495410,SRAE_2000524000,SRAE_X000107250,SRAE_2000290800,SRAE_X000199500,SRAE_2000478000,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000809000,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1566500,SVE_1794500,SVE_1162100, SSTP_0000387200,SSTP_0000718800,SSTP_0000341900,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000614100,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0001106900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000696700,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000999900,SSTP_0000305100,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000298300,SSTP_0000777200,SSTP_0000054200,SSTP_0000228600,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000163100,SSTP_0000930100,SSTP_0000987900,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_1000158800,SRAE_1000309200,SRAE_2000183100,SRAE_1000213600,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000105100,SRAE_2000202500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000222500,SRAE_2000074500,SRAE_2000374400,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000152200,SRAE_1000227100,SRAE_2000377600,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_2000111700,SRAE_1000189700,SRAE_2000174400,SRAE_0000036800,SRAE_2000323200,SRAE_2000234300,SRAE_2000240600,SRAE_2000130600,SRAE_1000254800,SRAE_1000120800,SRAE_0000041600,SRAE_2000045800,SRAE_0000040600,SRAE_0000015400,SRAE_2000351900,SRAE_2000369600,SRAE_2000357200, SPAL_0001634600,SPAL_0000849600,SPAL_0000730900,SPAL_0001024600,SPAL_0000703100,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001551900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0001630700,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000874800,SPAL_0001746100,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000249700,SPAL_0000095400,SPAL_0001742500,SPAL_0001054500,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0001620400,SPAL_0001617000,SPAL_0000177400,SPAL_0001652200,SPAL_0000813200,SPAL_0000464900,SPAL_0000969250,SPAL_0000483100,SPAL_0001642900,SPAL_0000092400,SPAL_0000275900,SPAL_0001381800,SPAL_0000388400,SPAL_0000863600,SPAL_0000158900,SPAL_0000724900,SPAL_0000395700,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001371300</t>
+  </si>
+  <si>
     <t>GO:0034641</t>
   </si>
   <si>
     <t>cellular nitrogen compound metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001168700,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0001170200,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000096500,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000011200,SSTP_0000140700,SSTP_0000911300,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0001138700,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000207300,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_1000020900,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_1000136300,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_0000022800,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_2000458700, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001096500,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001238800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000919300,SPAL_0000292900,SPAL_0000177400,SPAL_0000750800,SPAL_0000783800,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
+  </si>
+  <si>
     <t>GO:0034645</t>
   </si>
   <si>
@@ -148,54 +187,81 @@
     <t>cellular amide metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0001003800,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t>GO:0043604</t>
   </si>
   <si>
     <t>amide biosynthetic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0001003800,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t>GO:0044249</t>
   </si>
   <si>
     <t>cellular biosynthetic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_X000250000,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_X000079300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
+  </si>
+  <si>
     <t>GO:0044267</t>
   </si>
   <si>
     <t>cellular protein metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000298300,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_1000309200,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000105100,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000074500,SRAE_2000374400,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_1000189700,SRAE_2000174400,SRAE_0000036800,SRAE_2000323200,SRAE_2000234300,SRAE_2000240600,SRAE_2000130600,SRAE_1000254800,SRAE_1000120800,SRAE_2000045800,SRAE_0000040600,SRAE_0000015400,SRAE_2000351900,SRAE_2000369600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001551900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000249700,SPAL_0000095400,SPAL_0001742500,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001652200,SPAL_0000813200,SPAL_0000464900,SPAL_0000969250,SPAL_0000483100,SPAL_0001642900,SPAL_0000092400,SPAL_0000275900,SPAL_0000388400,SPAL_0000863600,SPAL_0000158900,SPAL_0000724900,SPAL_0000395700,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300</t>
+  </si>
+  <si>
     <t>GO:0044271</t>
   </si>
   <si>
     <t>cellular nitrogen compound biosynthetic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t>GO:0046034</t>
   </si>
   <si>
     <t>ATP metabolic process</t>
   </si>
   <si>
+    <t>SSTP_0000823300,SSTP_0000428100,SSTP_0001168700,SSTP_0000556300,SSTP_0000096500,SSTP_0000076400,SSTP_0000140700,SSTP_0000911300,SSTP_0001244100,SSTP_0001181600,SSTP_0001138700, SRAE_M000000005,SRAE_2000256800,SRAE_2000334600,SRAE_2000207300,SRAE_1000020900,SRAE_1000278400,SRAE_1000136300,SRAE_2000443400,SRAE_1000255700,SRAE_X000121000, SPAL_0000995200,SPAL_0000219500,SPAL_0000921600,SPAL_0001096500,SPAL_0000655400,SPAL_0000921500,SPAL_0000317800,SPAL_0000919300,SPAL_0000750800,SPAL_0000783800,SPAL_0000864500,SPAL_0000810100</t>
+  </si>
+  <si>
     <t>GO:1901564</t>
   </si>
   <si>
     <t>organonitrogen compound metabolic process</t>
   </si>
   <si>
+    <t>SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000150700,SRAE_2000424200,SRAE_2000486000,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000421600,SRAE_2000440600,SRAE_2000495410,SRAE_2000524000,SRAE_X000107250,SRAE_2000290800,SRAE_X000199500,SRAE_2000478000,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000809000,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1566500,SVE_1794500,SVE_1162100, SSTP_0000387200,SSTP_0000718800,SSTP_0000341900,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000614100,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001168700,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000096500,SSTP_0001106900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000696700,SSTP_0000427500,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000999900,SSTP_0000305100,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000816100,SSTP_0000298300,SSTP_0000777200,SSTP_0000054200,SSTP_0000228600,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000163100,SSTP_0000140700,SSTP_0000911300,SSTP_0000930100,SSTP_0000987900,SSTP_0000634900,SSTP_0001171150,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0001138700,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_1000158800,SRAE_1000309200,SRAE_2000183100,SRAE_1000213600,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000105100,SRAE_2000334600,SRAE_2000202500,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000207300,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_1000020900,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000222500,SRAE_2000074500,SRAE_2000374400,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_2000335200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000152200,SRAE_1000227100,SRAE_1000136300,SRAE_2000377600,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000111700,SRAE_1000189700,SRAE_2000174400,SRAE_0000036800,SRAE_2000323200,SRAE_2000234300,SRAE_2000240600,SRAE_2000130600,SRAE_1000255700,SRAE_1000254800,SRAE_1000120800,SRAE_0000041600,SRAE_2000045800,SRAE_0000040600,SRAE_0000015400,SRAE_2000351900,SRAE_2000369600,SRAE_2000357200, SPAL_0001634600,SPAL_0000849600,SPAL_0000730900,SPAL_0001024600,SPAL_0000703100,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001551900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001096500,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0001630700,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000874800,SPAL_0001746100,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000249700,SPAL_0000317800,SPAL_0000095400,SPAL_0001742500,SPAL_0001054500,SPAL_0001590150,SPAL_0000729200,SPAL_0000919300,SPAL_0000292900,SPAL_0001620400,SPAL_0001617000,SPAL_0000177400,SPAL_0000750800,SPAL_0001652200,SPAL_0000783800,SPAL_0000864500,SPAL_0000220100,SPAL_0000813200,SPAL_0000464900,SPAL_0000969250,SPAL_0000483100,SPAL_0001642900,SPAL_0000092400,SPAL_0000275900,SPAL_0001381800,SPAL_0000969700,SPAL_0000388400,SPAL_0000863600,SPAL_0000158900,SPAL_0000810100,SPAL_0000724900,SPAL_0000395700,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001371300</t>
+  </si>
+  <si>
     <t>GO:1901566</t>
   </si>
   <si>
     <t>organonitrogen compound biosynthetic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t>GO:1901576</t>
   </si>
   <si>
     <t>organic substance biosynthetic process</t>
   </si>
   <si>
+    <t>SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000978600,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000992800,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000042400,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_2000221200,SRAE_2000314600,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_X000250000,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_X000079300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000292600,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0000451900,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
+  </si>
+  <si>
     <t>GO:CC</t>
   </si>
   <si>
@@ -205,54 +271,81 @@
     <t>intracellular anatomical structure</t>
   </si>
   <si>
+    <t>SSTP_0000208900,SSTP_0000823300,SSTP_0000119100,SSTP_0000151300,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0000680600,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0000746900,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000753500,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000255500,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000086600,SSTP_0000305100,SSTP_0000369400,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000416100,SSTP_0000153100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000777200,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000214400,SSTP_0000127700,SSTP_0000765200,SSTP_0000651000,SSTP_0000229000,SSTP_0000911300,SSTP_0000930100,SSTP_0000122700,SSTP_0000758700,SSTP_0001171150,SSTP_0000304700,SSTP_0000724400,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_M000000005,SRAE_1000145800,SRAE_1000178500,SRAE_2000256800,SRAE_2000475100,SRAE_1000309200,SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000364600,SRAE_2000334600,SRAE_2000020900,SRAE_2000435600,SRAE_2000214800,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000416300,SRAE_2000293900,SRAE_2000300300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000382800,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000249200,SRAE_1000347400,SRAE_2000170700,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000085500,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000510800,SRAE_1000173900,SRAE_2000222400,SRAE_1000278400,SRAE_1000152200,SRAE_2000027000,SRAE_2000249700,SRAE_1000227100,SRAE_1000136300,SRAE_2000377600,SRAE_X000071300,SRAE_2000417300,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_2000146300,SRAE_2000099100,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_0000011100,SRAE_2000004200,SRAE_1000211700,SRAE_2000398200,SRAE_1000145500,SRAE_1000107700,SRAE_2000133800,SRAE_2000249800,SRAE_2000179300,SRAE_2000258500,SRAE_1000270300,SRAE_2000174400,SRAE_2000364800,SRAE_2000190300,SRAE_1000354400,SRAE_2000323200,SRAE_2000234300,SRAE_1000261100,SRAE_1000255700,SRAE_0000019300,SRAE_1000109100,SRAE_2000104800,SRAE_1000120800,SRAE_0000041600,SRAE_0000040600,SRAE_2000280100,SRAE_2000195200,SRAE_2000050800,SRAE_0000015400,SRAE_2000275900,SRAE_2000351900,SRAE_1000060700,SRAE_2000330300,SRAE_1000298500,SRAE_2000236300, SPAL_0001738500,SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000995200,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0000760700,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000921600,SPAL_0000172800,SPAL_0000453200,SPAL_0001618700,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000061900,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001386200,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0001504100,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000921500,SPAL_0001081000,SPAL_0000317400,SPAL_0001629900,SPAL_0000510000,SPAL_0000915700,SPAL_0000215000,SPAL_0000420300,SPAL_0001698600,SPAL_0000309100,SPAL_0000156000,SPAL_0001032400,SPAL_0001658900,SPAL_0001554100,SPAL_0000317800,SPAL_0000347900,SPAL_0001288700,SPAL_0001590150,SPAL_0001250800,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001161000,SPAL_0001658400,SPAL_0000750800,SPAL_0000234200,SPAL_0000864500,SPAL_0000240100,SPAL_0001020200,SPAL_0000772100,SPAL_0001017900,SPAL_0000969250,SPAL_0000432500,SPAL_0000999100,SPAL_0001309900,SPAL_0001381800,SPAL_0000502500,SPAL_0001647700,SPAL_0000235200,SPAL_0001555900,SPAL_0001398600,SPAL_0000842300,SPAL_0001268000,SPAL_0000158900,SPAL_0001054900,SPAL_0000284900,SPAL_0000781500,SPAL_0001671100,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001085700,SPAL_0001371300,SPAL_0000149400,SPAL_0001535700,SPAL_0000819800, SVE_0056400,SVE_0275900,SVE_0248300,SVE_0413700,SVE_0506800,SVE_0565300,SVE_0240600,SVE_1719700,SVE_1691500,SVE_1693100,SVE_1634300,SVE_1605700,SVE_1585600,SVE_0386200,SVE_0635700,SVE_1585400,SVE_0567200,SVE_1884300,SVE_0480700,SVE_1819400,SVE_0208500,SVE_0445300,SVE_0365700,SVE_0793100,SVE_1740400,SVE_0383800,SVE_0226500,SVE_1939800,SVE_0408700,SVE_0163500,SVE_0075200,SVE_1596200,SVE_0374700,SVE_1024300,SVE_1612800,SVE_1749500,SVE_1799500,SVE_1015700,SVE_1940600,SVE_0278900,SVE_1821400,SVE_0694100,SVE_1650700,SVE_0476800,SVE_0444600,SVE_0753900,SVE_0728400,SVE_0504100,SVE_1734500,SVE_0995400,SVE_0016000,SVE_1059100,SVE_0967800,SVE_0150900,SVE_1764400</t>
+  </si>
+  <si>
     <t>GO:0005737</t>
   </si>
   <si>
     <t>cytoplasm</t>
   </si>
   <si>
+    <t>SSTP_0000208900,SSTP_0000151300,SSTP_0000730000,SSTP_0000920600,SSTP_0001106300,SSTP_0000657600,SSTP_0000694000,SSTP_0000314800,SSTP_0000680600,SSTP_0001173900,SSTP_0000746900,SSTP_0000753500,SSTP_0000611200,SSTP_0000255500,SSTP_0000299600,SSTP_0000086600,SSTP_0000369400,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000416100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000214400,SSTP_0000651000,SSTP_0000229000,SSTP_0000911300,SSTP_0000122700,SSTP_0000758700,SSTP_0000724400, SRAE_M000000005,SRAE_1000145800,SRAE_1000178500,SRAE_2000256800,SRAE_1000309200,SRAE_1000118300,SRAE_2000148500,SRAE_2000448500,SRAE_2000267500,SRAE_2000364600,SRAE_2000334600,SRAE_2000020900,SRAE_2000435600,SRAE_2000214800,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000293900,SRAE_2000300300,SRAE_2000171500,SRAE_0000033600,SRAE_2000212500,SRAE_2000382800,SRAE_2000516800,SRAE_2000249200,SRAE_1000347400,SRAE_2000170700,SRAE_2000085500,SRAE_2000510800,SRAE_1000152200,SRAE_1000136300,SRAE_X000071300,SRAE_2000417300,SRAE_2000443400,SRAE_2000099100,SRAE_0000011100,SRAE_2000004200,SRAE_2000398200,SRAE_2000133800,SRAE_2000179300,SRAE_2000258500,SRAE_2000364800,SRAE_2000190300,SRAE_1000354400,SRAE_1000261100,SRAE_2000104800,SRAE_2000195200,SRAE_2000050800,SRAE_0000015400,SRAE_2000351900,SRAE_1000060700,SRAE_2000330300,SRAE_1000298500, SPAL_0001738500,SPAL_0001173100,SPAL_0000634000,SPAL_0000913000,SPAL_0000121400,SPAL_0000760700,SPAL_0000296700,SPAL_0001592900,SPAL_0000921600,SPAL_0001618700,SPAL_0000061900,SPAL_0001244000,SPAL_0001386200,SPAL_0001524200,SPAL_0000921500,SPAL_0001629900,SPAL_0000510000,SPAL_0000215000,SPAL_0000420300,SPAL_0000309100,SPAL_0000317800,SPAL_0001288700,SPAL_0001250800,SPAL_0001161000,SPAL_0000750800,SPAL_0000234200,SPAL_0000240100,SPAL_0001020200,SPAL_0000772100,SPAL_0000432500,SPAL_0000999100,SPAL_0001309900,SPAL_0001398600,SPAL_0001268000,SPAL_0000158900,SPAL_0001054900,SPAL_0000284900,SPAL_0000781500,SPAL_0001671100,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001371300,SPAL_0000819800, SVE_0275900,SVE_0248300,SVE_0413700,SVE_1691500,SVE_1693100,SVE_0567200,SVE_1884300,SVE_0445300,SVE_0793100,SVE_1740400,SVE_1939800,SVE_0163500,SVE_1596200,SVE_0374700,SVE_0694100,SVE_1650700,SVE_0476800,SVE_0444600,SVE_0753900,SVE_0728400,SVE_1734500,SVE_0016000,SVE_1059100,SVE_0150900,SVE_1764400</t>
+  </si>
+  <si>
     <t>GO:0005840</t>
   </si>
   <si>
     <t>ribosome</t>
   </si>
   <si>
+    <t>SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000475100,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_2000249700,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000249800,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250</t>
+  </si>
+  <si>
     <t>GO:0015934</t>
   </si>
   <si>
     <t>large ribosomal subunit</t>
   </si>
   <si>
+    <t>SSTP_0001085200,SSTP_0000730000,SSTP_0001173900,SSTP_0000890100,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000340000,SSTP_0001049900,SSTP_0000299600, SRAE_1000046600,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_2000222500,SRAE_1000347400,SRAE_1000211700,SRAE_1000107700, SPAL_0001173100,SPAL_0000541600,SPAL_0000860400,SPAL_0001592900,SPAL_0000453200,SPAL_0000778400,SPAL_0001244000,SPAL_0000636000,SPAL_0000518700,SPAL_0001524200</t>
+  </si>
+  <si>
     <t>GO:0015935</t>
   </si>
   <si>
     <t>small ribosomal subunit</t>
   </si>
   <si>
+    <t>SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0000297800,SSTP_0000725500,SSTP_0000909200,SSTP_0000331900,SSTP_0000058600, SRAE_1000155800,SRAE_2000267500,SRAE_2000311200,SRAE_2000501200,SRAE_2000100300,SRAE_1000024400,SRAE_1000245800,SRAE_2000074800,SRAE_2000323200, SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000187700,SPAL_0000154400,SPAL_0000677500,SPAL_0000773400,SPAL_0001741400,SPAL_0001703600</t>
+  </si>
+  <si>
     <t>GO:0022626</t>
   </si>
   <si>
     <t>cytosolic ribosome</t>
   </si>
   <si>
+    <t>SSTP_0000730000,SSTP_0000657600,SSTP_0000694000,SSTP_0001173900,SSTP_0000611200,SSTP_0000299600, SRAE_2000267500,SRAE_2000311200,SRAE_0000033600,SRAE_1000347400, SPAL_0001173100,SPAL_0000121400,SPAL_0000296700,SPAL_0001592900,SPAL_0001244000,SPAL_0001524200</t>
+  </si>
+  <si>
     <t>GO:0032991</t>
   </si>
   <si>
     <t>protein-containing complex</t>
   </si>
   <si>
+    <t>SSTP_0000823300,SSTP_0000428100,SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000950200,SSTP_0000556300,SSTP_0000264100,SSTP_0000331900,SSTP_0000340000,SSTP_0000145100,SSTP_0001045500,SSTP_0000011100,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600,SSTP_0000305100,SSTP_0000369400,SSTP_0000570000,SSTP_0000040000,SSTP_0000112200,SSTP_0000076400,SSTP_0000442700,SSTP_0000777200,SSTP_0000725900,SSTP_0000911300,SSTP_0001244100,SSTP_0000304700,SSTP_0000724400,SSTP_0001181600, SRAE_M000000005,SRAE_2000256800,SRAE_1000309200,SRAE_1000155800,SRAE_2000448500,SRAE_2000126900,SRAE_2000267500,SRAE_2000334600,SRAE_2000020900,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000501200,SRAE_2000100300,SRAE_2000328000,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000439500,SRAE_2000222500,SRAE_1000347400,SRAE_1000062000,SRAE_X000171800,SRAE_1000278400,SRAE_2000027000,SRAE_1000136300,SRAE_2000377600,SRAE_X000071300,SRAE_2000443400,SRAE_2000099100,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000145500,SRAE_1000107700,SRAE_2000133800,SRAE_1000270300,SRAE_1000354400,SRAE_2000323200,SRAE_1000261100,SRAE_1000255700,SRAE_0000019300,SRAE_1000109100,SRAE_X000121000,SRAE_0000041600,SRAE_1000060700,SRAE_2000330300,SRAE_1000298500,SRAE_2000236300, SPAL_0001173100,SPAL_0000995200,SPAL_0000541600,SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0000187700,SPAL_0001592900,SPAL_0000219500,SPAL_0000154400,SPAL_0000677500,SPAL_0000453200,SPAL_0000773400,SPAL_0000778400,SPAL_0001244000,SPAL_0000655400,SPAL_0001741400,SPAL_0001504100,SPAL_0000636000,SPAL_0000518700,SPAL_0001703600,SPAL_0001524200,SPAL_0000215000,SPAL_0000249700,SPAL_0000317800,SPAL_0000347900,SPAL_0001288700,SPAL_0000750800,SPAL_0000864500,SPAL_0000772100,SPAL_0001017900,SPAL_0001381800,SPAL_0000502500,SPAL_0001647700,SPAL_0001555900,SPAL_0000842300,SPAL_0001412300,SPAL_0001590600,SPAL_0001535700, SVE_0056400,SVE_0506800,SVE_0565300,SVE_0240600,SVE_1719700,SVE_1605700,SVE_0386200,SVE_0478900,SVE_1585400,SVE_0480700,SVE_1819400,SVE_0208500,SVE_0365700,SVE_0793100,SVE_1740400,SVE_1939800,SVE_0163500,SVE_0075200,SVE_1024300,SVE_1749500,SVE_1015700,SVE_1940600,SVE_0694100,SVE_1650700,SVE_0994300,SVE_0444600,SVE_0504100,SVE_1734500,SVE_1059100</t>
+  </si>
+  <si>
     <t>GO:0043226</t>
   </si>
   <si>
     <t>organelle</t>
   </si>
   <si>
+    <t>SSTP_0000208900,SSTP_0000119100,SSTP_0000151300,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0000746900,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000753500,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000255500,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000086600,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000416100,SSTP_0000153100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000765200,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000304700,SSTP_0000724400,SSTP_0000393800,SSTP_0000765700, SRAE_M000000005,SRAE_1000145800,SRAE_1000178500,SRAE_2000256800,SRAE_2000475100,SRAE_1000309200,SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000364600,SRAE_2000334600,SRAE_2000020900,SRAE_2000435600,SRAE_2000214800,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000416300,SRAE_2000293900,SRAE_2000300300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000382800,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000249200,SRAE_1000347400,SRAE_2000170700,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000085500,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000510800,SRAE_1000173900,SRAE_2000222400,SRAE_2000027000,SRAE_2000249700,SRAE_1000227100,SRAE_X000071300,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_2000146300,SRAE_2000099100,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_0000011100,SRAE_2000004200,SRAE_1000211700,SRAE_2000398200,SRAE_1000145500,SRAE_1000107700,SRAE_2000133800,SRAE_2000249800,SRAE_2000258500,SRAE_1000270300,SRAE_2000174400,SRAE_2000364800,SRAE_2000190300,SRAE_2000323200,SRAE_2000234300,SRAE_1000261100,SRAE_0000019300,SRAE_1000109100,SRAE_2000104800,SRAE_1000120800,SRAE_0000040600,SRAE_2000280100,SRAE_2000195200,SRAE_2000050800,SRAE_2000275900,SRAE_1000060700,SRAE_2000236300, SPAL_0001738500,SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0000760700,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000921600,SPAL_0000172800,SPAL_0000453200,SPAL_0001618700,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001386200,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0001504100,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000921500,SPAL_0001081000,SPAL_0000317400,SPAL_0001629900,SPAL_0000510000,SPAL_0000915700,SPAL_0000420300,SPAL_0001698600,SPAL_0000309100,SPAL_0000156000,SPAL_0001032400,SPAL_0001658900,SPAL_0001554100,SPAL_0000317800,SPAL_0000347900,SPAL_0001288700,SPAL_0001590150,SPAL_0001250800,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001658400,SPAL_0000240100,SPAL_0000772100,SPAL_0001017900,SPAL_0000969250,SPAL_0000432500,SPAL_0000999100,SPAL_0001309900,SPAL_0000502500,SPAL_0001647700,SPAL_0000235200,SPAL_0001555900,SPAL_0000842300,SPAL_0000781500,SPAL_0001671100,SPAL_0001085700,SPAL_0000149400,SPAL_0001535700,SPAL_0000819800, SVE_0056400,SVE_0275900,SVE_0413700,SVE_0506800,SVE_0240600,SVE_1719700,SVE_1693100,SVE_1634300,SVE_1605700,SVE_1585600,SVE_0386200,SVE_0635700,SVE_1585400,SVE_1884300,SVE_0480700,SVE_1819400,SVE_0208500,SVE_0445300,SVE_0365700,SVE_0793100,SVE_1740400,SVE_0383800,SVE_0226500,SVE_0408700,SVE_0163500,SVE_0075200,SVE_1596200,SVE_0374700,SVE_1024300,SVE_1612800,SVE_1749500,SVE_1799500,SVE_1015700,SVE_1940600,SVE_0278900,SVE_1821400,SVE_1650700,SVE_0476800,SVE_0728400,SVE_0504100,SVE_0995400,SVE_0016000,SVE_0967800,SVE_0150900,SVE_1764400</t>
+  </si>
+  <si>
     <t>GO:0043228</t>
   </si>
   <si>
     <t>non-membrane-bounded organelle</t>
   </si>
   <si>
+    <t>SSTP_0000208900,SSTP_0000119100,SSTP_0000151300,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000442700,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_1000145800,SRAE_2000475100,SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000020900,SRAE_2000214800,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_1000347400,SRAE_2000170700,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_2000027000,SRAE_2000249700,SRAE_1000227100,SRAE_X000071300,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000133800,SRAE_2000249800,SRAE_1000270300,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_0000019300,SRAE_1000109100,SRAE_1000120800,SRAE_0000040600,SRAE_2000195200,SRAE_1000060700, SPAL_0001738500,SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0000760700,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0001504100,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001629900,SPAL_0001698600,SPAL_0000156000,SPAL_0001658900,SPAL_0001554100,SPAL_0000347900,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001658400,SPAL_0001017900,SPAL_0000969250,SPAL_0001309900,SPAL_0000502500,SPAL_0001555900,SPAL_0000842300, SVE_0056400,SVE_0506800,SVE_0240600,SVE_1634300,SVE_0635700,SVE_0208500,SVE_0383800,SVE_0226500,SVE_0075200,SVE_1015700,SVE_1940600,SVE_1821400,SVE_0016000</t>
+  </si>
+  <si>
     <t>GO:0043229</t>
   </si>
   <si>
@@ -271,101 +364,178 @@
     <t>ribosomal subunit</t>
   </si>
   <si>
+    <t>SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000331900,SSTP_0000340000,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600, SRAE_1000155800,SRAE_2000267500,SRAE_1000046600,SRAE_2000311200,SRAE_2000501200,SRAE_2000100300,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_1000347400,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000323200, SPAL_0001173100,SPAL_0000541600,SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0000187700,SPAL_0001592900,SPAL_0000154400,SPAL_0000677500,SPAL_0000453200,SPAL_0000773400,SPAL_0000778400,SPAL_0001244000,SPAL_0001741400,SPAL_0000636000,SPAL_0000518700,SPAL_0001703600,SPAL_0001524200</t>
+  </si>
+  <si>
     <t>GO:0045259</t>
   </si>
   <si>
     <t>proton-transporting ATP synthase complex</t>
   </si>
   <si>
+    <t>SSTP_0000823300,SSTP_0000428100,SSTP_0000556300,SSTP_0000076400,SSTP_0001181600, SRAE_2000256800,SRAE_2000334600,SRAE_1000278400,SRAE_2000443400,SRAE_1000255700, SPAL_0000995200,SPAL_0000219500,SPAL_0000655400,SPAL_0000317800,SPAL_0000864500</t>
+  </si>
+  <si>
     <t>GO:1990904</t>
   </si>
   <si>
     <t>ribonucleoprotein complex</t>
   </si>
   <si>
+    <t>SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000331900,SSTP_0000340000,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600, SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_2000020900,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000501200,SRAE_2000100300,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_1000347400,SRAE_X000171800,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000323200, SPAL_0001173100,SPAL_0000541600,SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0000187700,SPAL_0001592900,SPAL_0000154400,SPAL_0000677500,SPAL_0000453200,SPAL_0000773400,SPAL_0000778400,SPAL_0001244000,SPAL_0001741400,SPAL_0000636000,SPAL_0000518700,SPAL_0001703600,SPAL_0001524200</t>
+  </si>
+  <si>
     <t>GO:0003735</t>
   </si>
   <si>
     <t>structural constituent of ribosome</t>
   </si>
   <si>
+    <t>SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250</t>
+  </si>
+  <si>
     <t>GO:0005198</t>
   </si>
   <si>
     <t>structural molecule activity</t>
   </si>
   <si>
+    <t>SSTP_0000510400,SSTP_0000119100,SSTP_0000151300,SSTP_0000258700,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000606100,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0001114600,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000950200,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0000530400,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000570000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000102800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000725900,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000393800,SSTP_0000926500,SSTP_0000765700, SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000126900,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000439500,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_1000062000,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_1000227100,SRAE_X000071300,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000261100,SRAE_1000120800,SRAE_0000040600,SRAE_2000195200, SPAL_0001024600,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0000563100,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0001288700,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0001309900,SPAL_0001385500,SPAL_0001535700</t>
+  </si>
+  <si>
     <t>GO:0006508</t>
   </si>
   <si>
     <t>proteolysis</t>
   </si>
   <si>
+    <t>SSTP_0000274400,SSTP_0001149800,SSTP_0000385400,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000486000,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_X000107250,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000809000,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
     <t>GO:0005576</t>
   </si>
   <si>
     <t>extracellular region</t>
   </si>
   <si>
+    <t>SSTP_0000274400,SSTP_0000485900,SSTP_0000705700,SSTP_0001133300,SSTP_0001222300,SSTP_0001133200,SSTP_0000700900,SSTP_0000701300,SSTP_0000700800,SSTP_0000701400,SSTP_0001108300,SSTP_0000967000, SRAE_2000477100,SRAE_2000477300,SRAE_2000524100,SRAE_2000506900,SRAE_2000460800,SRAE_0000025600,SRAE_2000046500,SRAE_X000226600,SRAE_2000486000,SRAE_X000038100,SRAE_2000451600, SPAL_0000191300,SPAL_0000211600,SPAL_0000511816,SPAL_0000525800,SPAL_0000557900,SPAL_0000676966,SPAL_0000691800,SPAL_0001139700,SPAL_0001230400,SPAL_0001248050,SPAL_0001311900,SPAL_0001559033,SPAL_0001559910,SPAL_0001764800, SVE_0645600,SVE_0268200,SVE_0268700,SVE_1615300,SVE_1866900,SVE_1867100,SVE_0736300,SVE_1331500</t>
+  </si>
+  <si>
+    <t>GO:0003824</t>
+  </si>
+  <si>
+    <t>catalytic activity</t>
+  </si>
+  <si>
+    <t>SRAE_0000055000,SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_0000072500,SRAE_0000048600,SRAE_2000150700,SRAE_2000424200,SRAE_2000406100,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000421600,SRAE_2000440600,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000478000,SRAE_X000237400,SRAE_2000289600,SRAE_X000107100,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000132400,SRAE_2000464800,SRAE_X000235500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_0000046300,SRAE_0000063600,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000149000,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000481600,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000585300,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000692600,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000818000,SPAL_0000827000,SPAL_0000848600,SPAL_0000881300,SPAL_0000922400,SPAL_0000940400,SPAL_0000942900,SPAL_0001071600,SPAL_0001140600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001322500,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001477600,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001595600,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400,SPAL_0001765000, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1309300,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0334400,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0667600,SVE_0706200,SVE_0771000,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1709300,SVE_1794600,SVE_1858400,SVE_0335100,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_0832600,SVE_1575500,SVE_0129300,SVE_0037500,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1566500,SVE_1794500,SVE_1633000,SVE_1162100,SVE_0788300</t>
+  </si>
+  <si>
     <t>GO:0004175</t>
   </si>
   <si>
     <t>endopeptidase activity</t>
   </si>
   <si>
+    <t>SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
     <t>GO:0004222</t>
   </si>
   <si>
     <t>metalloendopeptidase activity</t>
   </si>
   <si>
+    <t>SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_2000325600, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
     <t>GO:0008233</t>
   </si>
   <si>
     <t>peptidase activity</t>
   </si>
   <si>
+    <t>SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
     <t>GO:0008237</t>
   </si>
   <si>
     <t>metallopeptidase activity</t>
   </si>
   <si>
+    <t>SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_2000325600, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
+    <t>GO:0008270</t>
+  </si>
+  <si>
+    <t>zinc ion binding</t>
+  </si>
+  <si>
+    <t>SRAE_2000290720,SRAE_2000456700,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000289600,SRAE_2000469300,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000289800,SRAE_0000081000, SPAL_0000011100,SPAL_0000398600,SPAL_0000525800,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000675200,SPAL_0000682400,SPAL_0000691800,SPAL_0000722000,SPAL_0000766700,SPAL_0000791900,SPAL_0000817600,SPAL_0000881300,SPAL_0001071600,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001311900,SPAL_0001455900,SPAL_0001559910,SPAL_0001707400,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_1244400,SVE_0645600,SVE_0065700,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0706200,SVE_0902200,SVE_0917200,SVE_1185400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1575500,SVE_1397800,SVE_1185500,SVE_1331500,SVE_1577500,SVE_0260100</t>
+  </si>
+  <si>
+    <t>GO:0016787</t>
+  </si>
+  <si>
+    <t>hydrolase activity</t>
+  </si>
+  <si>
+    <t>SRAE_0000055000,SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000406100,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_X000107100,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000149000,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000848600,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001477600,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001595600,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400,SPAL_0001765000, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1309300,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0667600,SVE_0706200,SVE_0771000,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1709300,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_0832600,SVE_1575500,SVE_0129300,SVE_0037500,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1794500,SVE_1162100, SVE_0813500,SVE_1844100,SVE_0056400,SVE_0367500,SVE_1034400,SVE_0436000,SVE_0730700,SVE_0171500,SVE_0506800,SVE_0554400,SVE_0540900,SVE_0432100,SVE_1719700,SVE_1691500,SVE_0131900,SVE_1687200,SVE_1634300,SVE_0555900,SVE_0386200,SVE_0345200,SVE_0880100,SVE_0971300,SVE_0880200,SVE_0643400,SVE_0287300,SVE_0963300,SVE_0567200,SVE_1880000,SVE_0187400,SVE_0519500,SVE_1012400,SVE_1890600,SVE_0397400,SVE_1819400,SVE_1799200,SVE_0057100,SVE_0208500,SVE_0445300,SVE_0232200,SVE_0383800,SVE_0408700,SVE_1769900,SVE_0697100,SVE_0075200,SVE_1596200,SVE_0911800,SVE_1767400,SVE_0153800,SVE_0078200,SVE_0155900,SVE_0446100,SVE_0753900,SVE_0728400,SVE_1712600,SVE_1734500,SVE_0016000,SVE_1600100,SVE_0345000,SVE_1077900</t>
+  </si>
+  <si>
+    <t>GO:0043169</t>
+  </si>
+  <si>
+    <t>cation binding</t>
+  </si>
+  <si>
+    <t>SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_2000325600, SPAL_0000011100,SPAL_0000398600,SPAL_0000398900,SPAL_0000481600,SPAL_0000525800,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000675200,SPAL_0000682400,SPAL_0000691800,SPAL_0000692600,SPAL_0000722000,SPAL_0000766700,SPAL_0000791900,SPAL_0000792600,SPAL_0000817600,SPAL_0000881300,SPAL_0001071600,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001311900,SPAL_0001322500,SPAL_0001434710,SPAL_0001455900,SPAL_0001475300,SPAL_0001559910,SPAL_0001707400,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1703900,SVE_0056600,SVE_1244400,SVE_0645600,SVE_0065700,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0337600,SVE_0706200,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1185500,SVE_1331500,SVE_1577500,SVE_0260100,SVE_1162100</t>
+  </si>
+  <si>
+    <t>GO:0046872</t>
+  </si>
+  <si>
+    <t>metal ion binding</t>
+  </si>
+  <si>
+    <t>GO:0046914</t>
+  </si>
+  <si>
+    <t>transition metal ion binding</t>
+  </si>
+  <si>
+    <t>SRAE_2000290720,SRAE_2000456700,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000289600,SRAE_2000469300,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000289800,SRAE_0000081000, SPAL_0000011100,SPAL_0000398600,SPAL_0000525800,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000675200,SPAL_0000682400,SPAL_0000691800,SPAL_0000692600,SPAL_0000722000,SPAL_0000766700,SPAL_0000791900,SPAL_0000817600,SPAL_0000881300,SPAL_0001071600,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001311900,SPAL_0001455900,SPAL_0001559910,SPAL_0001707400,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_1244400,SVE_0645600,SVE_0065700,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0706200,SVE_0902200,SVE_0917200,SVE_1185400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1575500,SVE_1397800,SVE_1185500,SVE_1331500,SVE_1577500,SVE_0260100</t>
+  </si>
+  <si>
+    <t>GO:0140096</t>
+  </si>
+  <si>
+    <t>catalytic activity, acting on a protein</t>
+  </si>
+  <si>
+    <t>SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000150700,SRAE_2000424200,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1794500,SVE_1633000,SVE_1162100</t>
+  </si>
+  <si>
+    <t>MTCE.3,MTCE.35,MTCE.25,MTCE.21,MTCE.34,MTCE.16,MTCE.23,MTCE.26,MTCE.31,MTCE.12, SSTP_0000911500.1,SSTP_0000168300.1,SSTP_0001253800.2,SSTP_0000911300.1,SSTP_0001168700.1,SSTP_0000823300.1,SSTP_0001244100.1, SRAE_X000110700,SRAE_1000136500,SRAE_1000020900,SRAE_2000334600,SRAE_2000037100,SRAE_X000121000,SRAE_X000082900,SRAE_2000333700,SRAE_2000256800,SRAE_2000254300, SPAL_0000783800.1,SPAL_0000992600.1,SPAL_0001662900.1,SPAL_0000200300.1,SPAL_0000219500.1,SPAL_0000218500.1,SPAL_0000995200.1,SPAL_0000750800.1,SPAL_0000751000.1,SPAL_0000969350.1,SPAL_0001445300.1,SPAL_0000200100.1, SVE_0040500.1,SVE_1841400.1,SVE_0470700.1,SVE_0145600.1,SVE_0965900.1,SVE_1736700.1,SVE_0473400.1,SVE_0143800.1,SVE_0021500.1,SVE_0040700.1,SVE_1735800.1,SVE_1582400.1, K10B3.7,K10B3.8,Y82E9BR.3,E04A4.7,H28O16.1a,F32D1.2,F26E4.9,C34E10.6,T21B10.2a,T05D4.1,F20B6.2,Y69A2AR.18,T27E9.2,C03G5.1,Y49A3A.2,F02E8.1,T05H4.12,F58F12.1,F26E4.6,F46F11.5,F54D8.2,R53.4,F01F1.12,C53B7.4,C14B9.10</t>
+  </si>
+  <si>
+    <t>SSTP_0000552200.1,SSTP_0000765700.1,SSTP_0001179400.1,SSTP_0000042700.1,SSTP_0000890100.1,SSTP_0000127500.1,SSTP_0000052900.1,SSTP_0000611200.1,SSTP_0000730000.1,SSTP_0000297800.1,SSTP_0000119100.1,SSTP_0000143400.1,SSTP_0000339800.1,SSTP_0001004100.1,SSTP_0000930900.1,SSTP_0000340000.1,SSTP_0001085200.1, SRAE_1000338900,SRAE_2000138400,SRAE_2000249700,SRAE_2000018050,SRAE_2000174400,SRAE_2000098100,SRAE_2000001900,SRAE_1000074900,SRAE_2000100300,SRAE_2000323200,SRAE_2000475100,SRAE_0000039300, SPAL_0000773400.1,SPAL_0001378000.1,SPAL_0000639600.1,SPAL_0000970300.1,SPAL_0000156000.1,SPAL_0000270900.1,SPAL_0000172800.1,SPAL_0000729200.1,SPAL_0000155200.1,SPAL_0000887800.1,SPAL_0001272100.1,SPAL_0001596100.1,SPAL_0000743800.1,SPAL_0001484600.1,SPAL_0001068000.1,SPAL_0001554100.1,SPAL_0000969400.1,SPAL_0001737700.1,SPAL_0001480900.1,SPAL_0001648400.1,SPAL_0000771100.1,SPAL_0001415400.1,SPAL_0001024600.1,SPAL_0000610100.1,SPAL_0001270000.1,SPAL_0001005300.1,SPAL_0001415000.1,SPAL_0000630800.1,SPAL_0000636000.1,SPAL_0000677500.1,SPAL_0001649600.2,SPAL_0000678400.1,SPAL_0000518900.1,SPAL_0000331100.1, SVE_0452900.1,SVE_1014900.1,SVE_0066500.1,SVE_1617200.1,SVE_0528500.1,SVE_1895500.1,SVE_0526300.1,SVE_1866000.1,SVE_0450600.1,SVE_0525400.1,SVE_0581800.1,SVE_1015700.1,SVE_0000542450.1,SVE_1653000.1,SVE_0367200.1,SVE_1716400.1,SVE_1938900.1,SVE_1021400.1,SVE_0855300.1,SVE_0936800.1,SVE_0018500.1,SVE_1722600.1,SVE_1846100.1,SVE_1846300.1,SVE_0500100.1,SVE_0580800.1,SVE_1603700.1,SVE_0569300.1,SVE_1884000.1,SVE_1005200.1,SVE_1275600.1,SVE_1621000.1,SVE_0012800.1,SVE_0519800.1, W09C5.6b,B0513.3b,C42C1.14,F54E7.2,Y71A12B.1c,E04A4.8,F55D10.2,F53A3.3b,B0393.1,F56F3.5,C27A2.2a,Y43B11AR.4,D1007.12,Y37E3.7,H06I04.4a,T08B2.10,F42C5.8b,JC8.3a,B0336.10,C23G10.3,F37C12.11,K11H12.2,F39B2.6,F07D10.1,R13A5.8,ZC434.2,C16A3.9,F25H2.10,F28C6.7a,T05E11.1,B0041.4,F10E7.7,F13B10.2a,Y41D4B.5,C09H10.2,Y62E10A.1,F37C12.9,Y48B6A.2,Y24D9A.4,C14B9.7,D1007.6,Y106G6H.3c,K04D7.1,B0412.4,F56E10.4,F53G12.10,ZK1010.1,F40F11.1,C26F1.4,F54C9.5,Y45F10D.12,C06B8.8,C49H3.11,Y37E3.8b,C56C10.8,Y57G11C.16,F37C12.4,R11D1.8,F10B5.1,R151.3,Y71F9AL.13b,ZK652.4,B0250.1,T24B8.1a,Y105E8A.16,C32E8.2a,F36A2.6,C53H9.1,C04F12.4,C26F1.9,T05F1.3,T01C3.6,M01F1.2,F40F8.10,F52B5.6,W01D2.1,T22F3.4b,Y48G8AL.8,C54C6.1,C09D4.5,C37A2.7,K02B2.5,F28D1.7a</t>
+  </si>
+  <si>
+    <t>SSTP_0000643500.1,SSTP_0000552200.1,SSTP_0000765700.1,SSTP_0001179400.1,SSTP_0000767600.1,SSTP_0000264100.1,SSTP_0000042700.1,SSTP_0000629300.2,SSTP_0001093000.1,SSTP_0000890100.1,SSTP_0000559400.1,SSTP_0001088500.1,SSTP_0000127500.1,SSTP_0000748800.1,SSTP_0000052900.1,SSTP_0000611200.1,SSTP_0000040000.2,SSTP_0000961300.1,SSTP_0000730000.1,SSTP_0000297800.1,SSTP_0000119100.1,SSTP_0000383100.1,SSTP_0000143400.1,SSTP_0000339800.1,SSTP_0000920600.1,SSTP_0001004100.1,SSTP_0000947900.1,SSTP_0000930900.1,SSTP_0001040800.1,SSTP_0000340000.1,SSTP_0001085200.1,SSTP_0000480600.1,SSTP_0000818600.1, SRAE_1000338900,SRAE_2000138400,SRAE_2000249700,SRAE_2000018050,SRAE_2000011900,SRAE_X000018400,SRAE_X000029700,SRAE_2000174400,SRAE_2000098100,SRAE_2000118800,SRAE_2000001900,SRAE_2000027000,SRAE_1000074900,SRAE_X000217900,SRAE_X000071300,SRAE_2000277800,SRAE_X000165500,SRAE_X000198000,SRAE_2000100300,SRAE_2000323200,SRAE_0000010500,SRAE_2000475100,SRAE_X000035700,SRAE_0000039300, SPAL_0000773400.1,SPAL_0001017900.1,SPAL_0001555900.1,SPAL_0001378000.1,SPAL_0000639600.1,SPAL_0000970300.1,SPAL_0000647700.1,SPAL_0000156000.1,SPAL_0000270900.1,SPAL_0000172800.1,SPAL_0000729200.1,SPAL_0000647800.1,SPAL_0000155200.1,SPAL_0000887800.1,SPAL_0000050400.1,SPAL_0001272100.1,SPAL_0001596100.1,SPAL_0000743800.1,SPAL_0001484600.1,SPAL_0001068000.1,SPAL_0001554100.1,SPAL_0000969400.1,SPAL_0001737700.1,SPAL_0001480900.1,SPAL_0001648400.1,SPAL_0000771100.1,SPAL_0001736500.1,SPAL_0001415400.1,SPAL_0001024600.1,SPAL_0000610100.1,SPAL_0001270000.1,SPAL_0001005300.1,SPAL_0001415000.1,SPAL_0000079000.1,SPAL_0000630800.1,SPAL_0000373900.1,SPAL_0001075500.1,SPAL_0000636000.1,SPAL_0000677500.1,SPAL_0001649600.2,SPAL_0000678400.1,SPAL_0000518900.1,SPAL_0000468400.3,SPAL_0000331100.1, SVE_0452900.1,SVE_1014900.1,SVE_0066500.1,SVE_1617200.1,SVE_0528500.1,SVE_1895500.1,SVE_1812700.1,SVE_0526300.1,SVE_1866000.1,SVE_0450600.1,SVE_0506800.1,SVE_0525400.1,SVE_0581800.1,SVE_0056400.1,SVE_1015700.1,SVE_0000542450.1,SVE_1653000.1,SVE_0367200.1,SVE_1716400.1,SVE_1938900.1,SVE_1021400.1,SVE_0855300.1,SVE_0615900.1,SVE_0936800.1,SVE_0018500.1,SVE_1812800.1,SVE_1722600.1,SVE_1846100.1,SVE_1622100.1,SVE_1846300.1,SVE_0500100.1,SVE_0572700.1,SVE_0113100.1,SVE_0580800.1,SVE_0717100.2,SVE_1759800.1,SVE_1603700.1,SVE_0071400.1,SVE_0187700.1,SVE_0569300.1,SVE_1884000.1,SVE_1005200.1,SVE_1275600.1,SVE_1621000.1,SVE_0012800.1,SVE_0076400.1,SVE_0519800.1,SVE_0000100.1, W09C5.6b,B0513.3b,C42C1.14,F54E7.2,Y71A12B.1c,E04A4.8,F55D10.2,F53A3.3b,B0393.1,F56F3.5,C27A2.2a,Y43B11AR.4,D1007.12,Y37E3.7,H06I04.4a,F55G1.3,M03F4.2b,T04C12.4,T04C12.6,T08B2.10,F42C5.8b,Y105E8B.1n,C36E6.3,F17E9.9,F35H10.11,JC8.3a,B0336.10,C23G10.3,M163.3,F45F2.2,F07A5.7b,F37C12.11,C01B10.5c,K11H12.2,F39B2.6,F07D10.1,R13A5.8,C36E6.5,ZC434.2,ZK721.2,C16A3.9,F25H2.10,C47B2.3,F11C3.3,F09F7.2a,F28C6.7a,T05E11.1,B0041.4,T22E5.5,F10E7.7,F13B10.2a,Y41D4B.5,F45F2.13,C09H10.2,Y62E10A.1,F37C12.9,Y48B6A.2,Y24D9A.4,C14B9.7,F54E12.4,H02I12.6,D1007.6,Y106G6H.3c,K04D7.1,B0412.4,F56E10.4,F53G12.10,T10C6.13,ZK1010.1,K03A1.1,F07B7.5,K06C4.13,F40F11.1,K06C4.5,B0035.7,F54E12.5a,H02I12.7,C26F1.4,W09H1.2,T04C12.5,B0035.8,F08G2.1,ZK131.5,ZK131.9,F54C9.5,Y45F10D.12,C06B8.8,F07B7.4,F07B7.11,K06C4.4,K06C4.12,C49H3.11,F45F2.12,F17E9.10,Y37E3.8b,C56C10.8,Y57G11C.16,F37C12.4,Y49E10.6a,F22F1.1,R11D1.8,F10B5.1,R151.3,F55G1.2,Y71F9AL.13b,C04G2.4,ZK652.4,B0250.1,T24B8.1a,Y105E8A.16,C32E8.2a,F36A2.6,C53H9.1,F45F2.3,F45F2.4,T10C6.11,F28H1.2,F07B7.9,K06C4.2,C04F12.4,C26F1.9,F07B7.3,F07B7.10,K06C4.3,K06C4.11,C38C3.5,F17E9.13,F35H10.1,C36E8.5,F08G2.2,ZK131.6,ZK131.10,T13F2.10,T25C8.2,K06C4.10,ZK354.1,Y59E9AR.1,Y59E9AR.7,R06C7.10,T05F1.3,K07F5.3,T01C3.6,T05D4.1,M28.5,M01F1.2,T18D3.4,F40F8.10,F32B6.6,F52B5.6,F26E4.8b,F54C1.7,W01D2.1,T23D8.6,W08E12.7,ZK354.4,T13F2.11,R08C7.3,T22F3.4b,Y48G8AL.8,C54C6.1,F36H12.7,ZK1251.6,F53A9.10,C33F10.9,K07F5.2,K08F4.8,K12F2.1,T26A5.9,Y73B6BL.9a,ZK354.11,F57B9.6b,Y71F9B.4,T08B1.2a,B0035.9,F54E12.3,F55G1.11,C09D4.5,F55G1.10,ZK354.5,T10C6.12,C09B9.6,F22B3.2,C37A2.7,R13H9.4,K01G5.4,F08F1.8,B0035.10,F54E12.1,T10C6.14,ZK131.2,ZK131.3,ZK131.7,F08G2.3,R13H9.2,K02B2.5,C09B8.6c,K01G5.7,F22B3.1,K03A1.6,F28D1.7a,R05F9.13,W03F8.1</t>
+  </si>
+  <si>
+    <t>SSTP_0000552200.1,SSTP_0000765700.1,SSTP_0001179400.1,SSTP_0000154300.1,SSTP_0000042700.1,SSTP_0001114600.1,SSTP_0000258700.1,SSTP_0000629300.2,SSTP_0000890100.1,SSTP_0000530400.1,SSTP_0000087500.1,SSTP_0000472100.1,SSTP_0000127500.1,SSTP_0000622400.1,SSTP_0000748800.1,SSTP_0000556800.1,SSTP_0000102800.1,SSTP_0000052900.1,SSTP_0000611200.1,SSTP_0000044100.1,SSTP_0000297800.1,SSTP_0000273500.1,SSTP_0000119100.1,SSTP_0000143400.1,SSTP_0000286800.1,SSTP_0000339800.1,SSTP_0000510400.1,SSTP_0000147300.1,SSTP_0000079900.1,SSTP_0001004100.1,SSTP_0000947900.1,SSTP_0000930900.1,SSTP_0000340000.1,SSTP_0001085200.1,SSTP_0000870600.1,SSTP_0000477900.1, SRAE_1000338900,SRAE_2000138400,SRAE_2000018050,SRAE_X000224800,SRAE_2000434700,SRAE_2000439500,SRAE_2000145200,SRAE_2000174400,SRAE_2000126900,SRAE_2000098100,SRAE_2000001900,SRAE_1000074900,SRAE_2000157400,SRAE_X000071300,SRAE_X000135300,SRAE_1000188900,SRAE_X000003700,SRAE_X000008400,SRAE_2000385900,SRAE_2000100300,SRAE_2000323200,SRAE_2000399200,SRAE_1000268100,SRAE_X000035700,SRAE_1000243600,SRAE_0000039300, SPAL_0001683300.1,SPAL_0000773400.1,SPAL_0001503400.1,SPAL_0001132600.1,SPAL_0001378000.1,SPAL_0000639600.1,SPAL_0000970300.1,SPAL_0000156000.1,SPAL_0001588600.1,SPAL_0000270900.1,SPAL_0000172800.1,SPAL_0000729200.1,SPAL_0000155200.1,SPAL_0001432100.1,SPAL_0000887800.1,SPAL_0000050400.1,SPAL_0001272100.1,SPAL_0001596100.1,SPAL_0001698300.1,SPAL_0000314000.1,SPAL_0000743800.1,SPAL_0000016800.1,SPAL_0000431600.1,SPAL_0001385500.1,SPAL_0001484600.1,SPAL_0001554100.1,SPAL_0000924800.1,SPAL_0000969400.1,SPAL_0001737700.1,SPAL_0001480900.1,SPAL_0001648400.1,SPAL_0000771100.1,SPAL_0001736500.1,SPAL_0001415400.1,SPAL_0001024600.1,SPAL_0000610100.1,SPAL_0001270000.1,SPAL_0001005300.1,SPAL_0001415000.1,SPAL_0001376300.1,SPAL_0000630800.1,SPAL_0000636000.1,SPAL_0000840300.1,SPAL_0000677500.1,SPAL_0001649600.2,SPAL_0000678400.1,SPAL_0000518900.1,SPAL_0000331100.1, SVE_1804800.1,SVE_0452900.1,SVE_1014900.1,SVE_0119200.1,SVE_0209400.1,SVE_0066500.1,SVE_1617200.1,SVE_0528500.1,SVE_1895500.1,SVE_0526300.1,SVE_1866000.1,SVE_0450600.1,SVE_0525400.1,SVE_0275000.1,SVE_0581800.1,SVE_1015700.1,SVE_0000542450.1,SVE_0367200.1,SVE_1716400.1,SVE_0029100.1,SVE_1938900.1,SVE_1021400.1,SVE_0577600.1,SVE_0855300.1,SVE_0786800.1,SVE_0936800.1,SVE_0018500.1,SVE_1586200.1,SVE_1722600.1,SVE_1846100.1,SVE_1622100.1,SVE_1846300.1,SVE_0500100.1,SVE_0572700.1,SVE_1856000.1,SVE_0123700.1,SVE_0983000.1,SVE_0580800.1,SVE_1603700.1,SVE_0187700.1,SVE_0569300.1,SVE_1884000.1,SVE_1005200.1,SVE_1275600.1,SVE_1621000.1,SVE_0012800.1,SVE_0228000.1, B0222.6,B0222.8,W09C5.6b,B0513.3b,C42C1.14,F54E7.2,Y71A12B.1c,F23H12.4b,E04A4.8,T07H6.3,F55D10.2,T28C6.4,T28C6.6,F53A3.3b,B0393.1,W05B2.1,F56F3.5,F53F1.5,C29F4.1,C27A2.2a,W05B2.5,T10E10.2,Y43B11AR.4,D1007.12,Y37E3.7,B0222.7,H06I04.4a,F27C1.8,W05B2.6,M03F4.2b,T10E10.1,T04C12.6,F38A3.2,T08B2.10,F42C5.8b,F57B1.4,T10E10.6,T10E10.5,JC8.3a,B0336.10,F30B5.1,F57B1.3,C23G10.3,F11G11.12,F37C12.11,K11H12.2,F39B2.6,Y41E3.2,F07D10.1,R13A5.8,ZC434.2,F26F12.1,C16A3.9,F25H2.10,C09G5.5,C47B2.3,F11C3.3,F08G5.4,F28C6.7a,T05E11.1,ZC373.7,B0041.4,F10E7.7,F13B10.2a,Y41D4B.5,C09H10.2,M18.1b,F38A3.1,Y62E10A.1,C34H4.4,F37C12.9,C53B4.5,Y48B6A.2,C14B9.7,D1007.6,F55C10.2,Y106G6H.3c,B0412.4,W03G11.1b,F56E10.4,F53G12.10,ZK1010.1,F40F11.1,T06E4.6,F15H10.1,C26F1.4,F54C9.5,Y45F10D.12,T13B5.4,C06B8.8,C49H3.11,F55C10.3,C52D10.13,B0491.2,Y37E3.8b,F54D1.2,F54D1.3,C44C10.1,C09G5.4,Y57G11C.16,F37C12.4,R11D1.8,F10B5.1,R151.3,ZK1193.1,F54D8.1,F11G11.11,Y71F9AL.13b,T15B7.4,ZK652.4,B0250.1,T11F9.9,T24B8.1a,Y105E8A.16,C24F3.6,C32E8.2a,F36A2.6,T06E4.4,M195.1,C53H9.1,F15H10.2,ZC513.8,C04F12.4,C26F1.9,C36E8.5,C34F6.2,F54C9.4,R06C7.10,T05F1.3,T05A1.2,T01C3.6,M01F1.2,T15B7.3,F40F8.10,F52B5.6,K12D12.3,F26E4.8b,F52B11.4,F54C1.7,W01D2.1,Y2H9A.3,T22F3.4b,Y48G8AL.8,C54C6.1,F14H12.1,C09D4.5,C47G2.1,C50B6.4,C37A2.7,K02B2.5,C34F6.3,F41F3.4,K01G5.7,C29E4.1,T10B10.1,F28D1.7a,D2023.7,F15A2.1b,ZK1248.2,W01B6.7</t>
+  </si>
+  <si>
     <t>GO:0042302</t>
   </si>
   <si>
     <t>structural constituent of cuticle</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">File S5. GO terms significantly enriched in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">S. stercoralis </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>genes that are highly expressed in free-living females</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> File S5. GO terms significantly enriched in S. stercoralis genes that are poorly-expressed in free-living females</t>
+    <t>SSTP_0000154300.1,SSTP_0001114600.1,SSTP_0000258700.1,SSTP_0000530400.1,SSTP_0000087500.1,SSTP_0000472100.1,SSTP_0000622400.1,SSTP_0000556800.1,SSTP_0000102800.1,SSTP_0000044100.1,SSTP_0000273500.1,SSTP_0000286800.1,SSTP_0000510400.1,SSTP_0000147300.1,SSTP_0000079900.1,SSTP_0000870600.1,SSTP_0000477900.1, SRAE_X000224800,SRAE_2000434700,SRAE_2000439500,SRAE_2000145200,SRAE_2000126900,SRAE_2000157400,SRAE_X000135300,SRAE_1000188900,SRAE_X000003700,SRAE_X000008400,SRAE_2000385900,SRAE_2000399200,SRAE_1000268100,SRAE_1000243600, SPAL_0001683300.1,SPAL_0001503400.1,SPAL_0001132600.1,SPAL_0001588600.1,SPAL_0001432100.1,SPAL_0001698300.1,SPAL_0000314000.1,SPAL_0000016800.1,SPAL_0000431600.1,SPAL_0001385500.1,SPAL_0000924800.1,SPAL_0001376300.1,SPAL_0000840300.1, SVE_1804800.1,SVE_0119200.1,SVE_0209400.1,SVE_0275000.1,SVE_0029100.1,SVE_0577600.1,SVE_0786800.1,SVE_1586200.1,SVE_1856000.1,SVE_0123700.1,SVE_0983000.1,SVE_0228000.1, B0222.6,B0222.8,F23H12.4b,T07H6.3,T28C6.4,T28C6.6,W05B2.1,F53F1.5,C29F4.1,W05B2.5,T10E10.2,B0222.7,F27C1.8,W05B2.6,T10E10.1,F38A3.2,F57B1.4,T10E10.6,T10E10.5,F30B5.1,F57B1.3,F11G11.12,Y41E3.2,F26F12.1,C09G5.5,F08G5.4,ZC373.7,M18.1b,F38A3.1,C34H4.4,C53B4.5,F55C10.2,W03G11.1b,T06E4.6,F15H10.1,T13B5.4,F55C10.3,C52D10.13,B0491.2,F54D1.2,F54D1.3,C44C10.1,C09G5.4,ZK1193.1,F54D8.1,F11G11.11,T15B7.4,T11F9.9,C24F3.6,T06E4.4,M195.1,F15H10.2,ZC513.8,C34F6.2,F54C9.4,T05A1.2,T15B7.3,K12D12.3,F52B11.4,Y2H9A.3,F14H12.1,C47G2.1,C50B6.4,C34F6.3,F41F3.4,C29E4.1,T10B10.1,D2023.7,F15A2.1b,ZK1248.2,W01B6.7</t>
   </si>
   <si>
     <r>
@@ -424,127 +594,10 @@
     </r>
   </si>
   <si>
-    <t>SSTP_0001269900.1, SSTP_0000639200.1, SSTP_0000985700.1, SSTP_0000441300.1, SSTP_0001178000.5, SSTP_0000487800.1, SSTP_0000644300.1, SSTP_0000699200.1, SSTP_0001278000.1, SSTP_0001039100.1, SSTP_0000688700.1, SSTP_0000532300.1, SSTP_0000665900.1, SSTP_0000932500.1, SRAE_0000079000, SRAE_0000078200, SRAE_0000068100, SRAE_0000046800, SRAE_X000232700, SRAE_0000073700, SRAE_0000068900, SRAE_X000240100, SRAE_X000200500, SRAE_X000199300, SRAE_0000051500, SRAE_0000052200, SRAE_X000233800, SRAE_0000072800, SRAE_X000233500, SRAE_X000232600, SRAE_0000072000, SRAE_0000058000, SRAE_X000141000, SRAE_X000237300, SRAE_0000059400, SRAE_0000062600, SRAE_X000199700, SRAE_2000127600, SRAE_2000416000, SRAE_1000197400, SRAE_0000060700, SRAE_X000236400, SRAE_0000058100, SRAE_0000059300, SRAE_0000064100, SRAE_0000066700, SRAE_0000052000, SRAE_0000046300, SRAE_0000053700, SRAE_X000236300, SPAL_0001104200.1, SPAL_0000882400.3, SPAL_0000388300.1, SPAL_0001094400.1, SPAL_0001140300.1, SPAL_0000993400.1, SPAL_0001123000.1, SPAL_0000958700.1, SPAL_0001330500.1, SPAL_0000134500.1, SPAL_0000721600.1, SPAL_0000068700.1, SPAL_0000132800.1, SPAL_0001283900.1, SPAL_0000480700.1, SVE_0032300.1, SVE_1106800.1, SVE_1964200.1, SVE_1099100.1, SVE_0775500.1, SVE_0685700.1, SVE_0839400.1, SVE_0647100.1, SVE_0832100.1, SVE_1663200.1, SVE_1156900.1, SVE_1542200.1, SVE_0831000.1, SVE_1661200.1, M163.3, B0035.7, F54E12.5a, H02I12.7, F22F1.1, Y48B6A.14, F45F2.4, F07B7.3, F07B7.10, K06C4.3, K06C4.11, F17E9.13, F35H10.1, F08G2.2, ZK131.6, ZK131.10, T23D8.6, Y73B6BL.9a, F55G1.10, T10C6.12</t>
-  </si>
-  <si>
-    <t>SSTP_0001269900.1, SSTP_0000639200.1, SSTP_0000985700.1, SSTP_0000441300.1, SSTP_0001178000.5, SSTP_0000487800.1, SSTP_0000644300.1, SSTP_0000699200.1, SSTP_0001278000.1, SSTP_0001039100.1, SSTP_0000688700.1, SSTP_0000532300.1, SSTP_0000665900.1, SSTP_0000932500.1, SRAE_0000079000, SRAE_0000078200, SRAE_X000232700, SRAE_0000073700, SRAE_0000068900, SRAE_X000240100, SRAE_X000200500, SRAE_X000199300, SRAE_0000052200, SRAE_0000072800, SRAE_X000141000, SRAE_0000062600, SRAE_X000199700, SRAE_2000127600, SRAE_1000197400, SRAE_0000058100, SRAE_0000059300, SRAE_0000064100, SRAE_0000066700, SRAE_0000052000, SRAE_0000046300, SRAE_X000236300, SPAL_0000882400.3, SPAL_0001094400.1, SPAL_0001140300.1, SPAL_0001123000.1, SPAL_0000958700.1, SPAL_0001330500.1, SPAL_0000134500.1, SPAL_0000721600.1, SPAL_0000068700.1, SPAL_0000132800.1, SPAL_0001283900.1, SVE_0032300.1, SVE_1106800.1, SVE_1964200.1, SVE_1099100.1, SVE_0775500.1, SVE_0839400.1, SVE_0647100.1, SVE_0832100.1, SVE_1663200.1, SVE_1542200.1, SVE_0831000.1, SVE_1661200.1</t>
-  </si>
-  <si>
-    <t>SSTP_0001269900.1, SSTP_0000124500.1, SSTP_0000639200.1, SSTP_0000985700.1, SSTP_0000441300.1, SSTP_0001208100.1, SSTP_0001178000.5, SSTP_0000347100.1, SSTP_0000064900.1, SSTP_0000487800.1, SSTP_0000644300.1, SSTP_0000696800.1, SSTP_0000699200.1, SSTP_0001278000.1, SSTP_0001039100.1, SSTP_0000462700.1, SSTP_0000688700.1, SSTP_0000532300.1, SSTP_0000665900.1, SSTP_0000141900.1, SSTP_0000932500.1, SRAE_0000079000, SRAE_0000078200, SRAE_0000068100, SRAE_0000046800, SRAE_X000232700, SRAE_0000073700, SRAE_0000068900, SRAE_X000240100, SRAE_X000200500, SRAE_X000199300, SRAE_0000051500, SRAE_0000052200, SRAE_X000233800, SRAE_0000072800, SRAE_X000233500, SRAE_X000232600, SRAE_0000072000, SRAE_0000058000, SRAE_X000141000, SRAE_X000237300, SRAE_0000059400, SRAE_0000062600, SRAE_X000199700, SRAE_2000127600, SRAE_2000416000, SRAE_1000197400, SRAE_0000060700, SRAE_X000236400, SRAE_0000058100, SRAE_1000161900, SRAE_0000059300, SRAE_0000064100, SRAE_0000066700, SRAE_0000052000, SRAE_X000140900, SRAE_0000046300, SRAE_2000177700, SRAE_0000053700, SRAE_2000296700, SRAE_X000236300, SPAL_0001104200.1, SPAL_0000882400.3, SPAL_0001064500.1, SPAL_0000724300.1, SPAL_0000388100.1, SPAL_0000388300.1, SPAL_0001094400.1, SPAL_0000627200.1, SPAL_0001140300.1, SPAL_0000993400.1, SPAL_0001123000.1, SPAL_0000958700.1, SPAL_0000739600.1, SPAL_0001330500.1, SPAL_0000253000.1, SPAL_0000579300.1, SPAL_0000807700.1, SPAL_0000900000.1, SPAL_0000134500.1, SPAL_0000721600.1, SPAL_0000068700.1, SPAL_0000132800.1, SPAL_0000186400.1, SPAL_0001283900.1, SPAL_0000480700.1, SVE_0032300.1, SVE_1106800.1, SVE_0677700.1, SVE_1964200.1, SVE_1099100.1, SVE_0775500.1, SVE_1940100.1, SVE_0685700.1, SVE_0593300.1, SVE_0839400.1, SVE_0647100.1, SVE_0832100.1, SVE_1663200.1, SVE_1156900.1, SVE_1542200.1, SVE_0831000.1, SVE_1661200.1</t>
-  </si>
-  <si>
-    <t>SSTP_0001269900.1, SSTP_0000701100.1, SSTP_0000704833.1, SSTP_0001269800.1, SSTP_0000884800.1, SSTP_0000124500.1, SSTP_0000842500.1, SSTP_0001130800.1, SSTP_0000985800.1, SSTP_0000644700.1, SSTP_0000004650.1, SSTP_0000639200.1, SSTP_0000287200.1, SSTP_0000990700.1, SSTP_0000985700.1, SSTP_0000441300.1, SSTP_0001208100.1, SSTP_0001178000.5, SSTP_0000064900.1, SSTP_0000487800.1, SSTP_0000644300.1, SSTP_0000696800.1, SSTP_0000699200.1, SSTP_0001278000.1, SSTP_0001039100.1, SSTP_0000636200.1, SSTP_0000688700.1, SSTP_0000532300.1, SSTP_0000665900.1, SSTP_0000141900.1, SSTP_0000932500.1, SRAE_X000233000, SRAE_0000079000, SRAE_0000078200, SRAE_X000232700, SRAE_0000073700, SRAE_0000068900, SRAE_X000240100, SRAE_X000200500, SRAE_0000063000, SRAE_X000199300, SRAE_0000047000, SRAE_0000052200, SRAE_0000072800, SRAE_0000049600, SRAE_0000049700, SRAE_0000072000, SRAE_0000047200, SRAE_X000141000, SRAE_0000059400, SRAE_0000062600, SRAE_X000199700, SRAE_2000127600, SRAE_2000416000, SRAE_1000197400, SRAE_X000199900, SRAE_X000199800, SRAE_2000366600, SRAE_X000236400, SRAE_0000058100, SRAE_0000059300, SRAE_0000064100, SRAE_0000066700, SRAE_0000052000, SRAE_X000140900, SRAE_0000046300, SRAE_2000048600, SRAE_0000059200, SRAE_2000177700, SRAE_X000236500, SRAE_2000296700, SRAE_1000173600, SRAE_X000236300, SPAL_0000882400.3, SPAL_0001064500.1, SPAL_0000724300.1, SPAL_0000881000.1, SPAL_0000209900.1, SPAL_0001779100.1, SPAL_0001094400.1, SPAL_0000104300.1, SPAL_0001571200.1, SPAL_0000627200.1, SPAL_0001140300.1, SPAL_0001123000.1, SPAL_0000852300.1, SPAL_0001121500.1, SPAL_0000435200.1, SPAL_0000817300.1, SPAL_0000855800.1, SPAL_0001450200.1, SPAL_0000959200.1, SPAL_0000958700.1, SPAL_0000739600.1, SPAL_0000535600.1, SPAL_0001330500.1, SPAL_0000566100.1, SPAL_0000351100.1, SPAL_0000253000.1, SPAL_0000579300.1, SPAL_0000134500.1, SPAL_0000721600.1, SPAL_0001449000.1, SPAL_0000068700.1, SPAL_0000132800.1, SPAL_0001283900.1, SPAL_0000480700.1, SPAL_0000846000.1, SVE_1669600.1, SVE_1669500.1, SVE_0032300.1, SVE_1121400.1, SVE_1106800.1, SVE_1121300.1, SVE_0677700.1, SVE_1964200.1, SVE_1099100.1, SVE_0775500.1, SVE_0685700.1, SVE_0196800.1, SVE_0593300.1, SVE_0839400.1, SVE_0647100.1, SVE_0832100.1, SVE_1663200.1, SVE_1704800.1, SVE_1542200.1, SVE_0831000.1, SVE_1310700.1, SVE_1662000.1, SVE_1661200.1, R03G5.1, F31E3.5, F55D10.2, C27A2.2a, Y43B11AR.4, D1007.12, F55G1.3, R06C1.4, F54H12.6, F54C9.1, F17E9.9, F35H10.11, JC8.3a, B0336.10, C23G10.3, M163.3, F45F2.2, C01B10.5c, K11H12.2, F39B2.6, F07D10.1, R13A5.8, C16A3.9, F25H2.10, F28C6.7a, T05E11.1, B0041.4, F13B10.2a, R09B3.3, F45F2.13, F37C12.9, R09B3.2, Y24D9A.4, F54E12.4, H02I12.6, D1007.6, Y106G6H.3c, F56E10.4, F53G12.10, T10C6.13, K03A1.1, F07B7.5, K06C4.13, K06C4.5, B0035.7, F54E12.5a, H02I12.7, W09H1.2, B0035.8, F08G2.1, ZK131.5, ZK131.9, F54C9.5, Y45F10D.12, F07B7.4, F07B7.11, K06C4.4, K06C4.12, C49H3.11, F25H5.4b, F45F2.12, F17E9.10, Y41E3.10a, Y57G11C.16, Y49E10.6a, F22F1.1, T05G5.10b, Y48B6A.14, R151.3, F17C11.9a, F55G1.2, Y71F9AL.13b, ZK652.4, B0250.1, C32E8.2a, F36A2.6, F45F2.3, F45F2.4, T10C6.11, F07B7.9, K06C4.2, C04F12.4, F07B7.3, F07B7.10, K06C4.3, K06C4.11, F17E9.13, F35H10.1, F08G2.2, ZK131.6, ZK131.10, K06C4.10, T05F1.3, T01C3.6, M28.5, M01F1.2, F40F8.10, F52B5.6, W01D2.1, T23D8.6, W08E12.7, R08C7.3, T22F3.4b, C54C6.1, Y73B6BL.9a, F57B9.6b, Y71F9B.4, B0035.9, F54E12.3, F55G1.11, C09D4.5, K11D9.2b, F55G1.10, T10C6.12, F22B3.2, B0035.10, F54E12.1, T10C6.14, ZK131.2, ZK131.3, ZK131.7, F08G2.3, F22B3.1, K03A1.6</t>
-  </si>
-  <si>
-    <t>MTCE.3, MTCE.35, MTCE.25, MTCE.21, MTCE.34, MTCE.16, MTCE.23, MTCE.26, MTCE.31, MTCE.12, SSTP_0000911500.1, SSTP_0000168300.1, SSTP_0001253800.2, SSTP_0000911300.1, SSTP_0001168700.1, SSTP_0000823300.1, SSTP_0001244100.1, SRAE_X000110700, SRAE_1000136500, SRAE_1000020900, SRAE_2000334600, SRAE_2000037100, SRAE_X000121000, SRAE_X000082900, SRAE_2000333700, SRAE_2000256800, SRAE_2000254300, SPAL_0000783800.1, SPAL_0000992600.1, SPAL_0001662900.1, SPAL_0000200300.1, SPAL_0000219500.1, SPAL_0000218500.1, SPAL_0000995200.1, SPAL_0000750800.1, SPAL_0000751000.1, SPAL_0000969350.1, SPAL_0001445300.1, SPAL_0000200100.1, SVE_0040500.1, SVE_1841400.1, SVE_0470700.1, SVE_0145600.1, SVE_0965900.1, SVE_1736700.1, SVE_0473400.1, SVE_0143800.1, SVE_0021500.1, SVE_0040700.1, SVE_1735800.1, SVE_1582400.1, K10B3.7, K10B3.8, Y82E9BR.3, E04A4.7, H28O16.1a, F32D1.2, F26E4.9, C34E10.6, T21B10.2a, T05D4.1, F20B6.2, Y69A2AR.18, T27E9.2, C03G5.1, Y49A3A.2, F02E8.1, T05H4.12, F58F12.1, F26E4.6, F46F11.5, F54D8.2, R53.4, F01F1.12, C53B7.4, C14B9.10</t>
-  </si>
-  <si>
-    <t>SSTP_0000552200.1, SSTP_0000765700.1, SSTP_0001179400.1, SSTP_0000042700.1, SSTP_0000890100.1, SSTP_0000127500.1, SSTP_0000052900.1, SSTP_0000611200.1, SSTP_0000730000.1, SSTP_0000297800.1, SSTP_0000119100.1, SSTP_0000143400.1, SSTP_0000339800.1, SSTP_0001004100.1, SSTP_0000930900.1, SSTP_0000340000.1, SSTP_0001085200.1, SRAE_1000338900, SRAE_2000138400, SRAE_2000249700, SRAE_2000018050, SRAE_2000174400, SRAE_2000098100, SRAE_2000001900, SRAE_1000074900, SRAE_2000100300, SRAE_2000323200, SRAE_2000475100, SRAE_0000039300, SPAL_0000773400.1, SPAL_0001378000.1, SPAL_0000639600.1, SPAL_0000970300.1, SPAL_0000156000.1, SPAL_0000270900.1, SPAL_0000172800.1, SPAL_0000729200.1, SPAL_0000155200.1, SPAL_0000887800.1, SPAL_0001272100.1, SPAL_0001596100.1, SPAL_0000743800.1, SPAL_0001484600.1, SPAL_0001068000.1, SPAL_0001554100.1, SPAL_0000969400.1, SPAL_0001737700.1, SPAL_0001480900.1, SPAL_0001648400.1, SPAL_0000771100.1, SPAL_0001415400.1, SPAL_0001024600.1, SPAL_0000610100.1, SPAL_0001270000.1, SPAL_0001005300.1, SPAL_0001415000.1, SPAL_0000630800.1, SPAL_0000636000.1, SPAL_0000677500.1, SPAL_0001649600.2, SPAL_0000678400.1, SPAL_0000518900.1, SPAL_0000331100.1, SVE_0452900.1, SVE_1014900.1, SVE_0066500.1, SVE_1617200.1, SVE_0528500.1, SVE_1895500.1, SVE_0526300.1, SVE_1866000.1, SVE_0450600.1, SVE_0525400.1, SVE_0581800.1, SVE_1015700.1, SVE_0000542450.1, SVE_1653000.1, SVE_0367200.1, SVE_1716400.1, SVE_1938900.1, SVE_1021400.1, SVE_0855300.1, SVE_0936800.1, SVE_0018500.1, SVE_1722600.1, SVE_1846100.1, SVE_1846300.1, SVE_0500100.1, SVE_0580800.1, SVE_1603700.1, SVE_0569300.1, SVE_1884000.1, SVE_1005200.1, SVE_1275600.1, SVE_1621000.1, SVE_0012800.1, SVE_0519800.1, W09C5.6b, B0513.3b, C42C1.14, F54E7.2, Y71A12B.1c, E04A4.8, F55D10.2, F53A3.3b, B0393.1, F56F3.5, C27A2.2a, Y43B11AR.4, D1007.12, Y37E3.7, H06I04.4a, T08B2.10, F42C5.8b, JC8.3a, B0336.10, C23G10.3, F37C12.11, K11H12.2, F39B2.6, F07D10.1, R13A5.8, ZC434.2, C16A3.9, F25H2.10, F28C6.7a, T05E11.1, B0041.4, F10E7.7, F13B10.2a, Y41D4B.5, C09H10.2, Y62E10A.1, F37C12.9, Y48B6A.2, Y24D9A.4, C14B9.7, D1007.6, Y106G6H.3c, K04D7.1, B0412.4, F56E10.4, F53G12.10, ZK1010.1, F40F11.1, C26F1.4, F54C9.5, Y45F10D.12, C06B8.8, C49H3.11, Y37E3.8b, C56C10.8, Y57G11C.16, F37C12.4, R11D1.8, F10B5.1, R151.3, Y71F9AL.13b, ZK652.4, B0250.1, T24B8.1a, Y105E8A.16, C32E8.2a, F36A2.6, C53H9.1, C04F12.4, C26F1.9, T05F1.3, T01C3.6, M01F1.2, F40F8.10, F52B5.6, W01D2.1, T22F3.4b, Y48G8AL.8, C54C6.1, C09D4.5, C37A2.7, K02B2.5, F28D1.7a</t>
-  </si>
-  <si>
-    <t>SSTP_0000643500.1, SSTP_0000552200.1, SSTP_0000765700.1, SSTP_0001179400.1, SSTP_0000767600.1, SSTP_0000264100.1, SSTP_0000042700.1, SSTP_0000629300.2, SSTP_0001093000.1, SSTP_0000890100.1, SSTP_0000559400.1, SSTP_0001088500.1, SSTP_0000127500.1, SSTP_0000748800.1, SSTP_0000052900.1, SSTP_0000611200.1, SSTP_0000040000.2, SSTP_0000961300.1, SSTP_0000730000.1, SSTP_0000297800.1, SSTP_0000119100.1, SSTP_0000383100.1, SSTP_0000143400.1, SSTP_0000339800.1, SSTP_0000920600.1, SSTP_0001004100.1, SSTP_0000947900.1, SSTP_0000930900.1, SSTP_0001040800.1, SSTP_0000340000.1, SSTP_0001085200.1, SSTP_0000480600.1, SSTP_0000818600.1, SRAE_1000338900, SRAE_2000138400, SRAE_2000249700, SRAE_2000018050, SRAE_2000011900, SRAE_X000018400, SRAE_X000029700, SRAE_2000174400, SRAE_2000098100, SRAE_2000118800, SRAE_2000001900, SRAE_2000027000, SRAE_1000074900, SRAE_X000217900, SRAE_X000071300, SRAE_2000277800, SRAE_X000165500, SRAE_X000198000, SRAE_2000100300, SRAE_2000323200, SRAE_0000010500, SRAE_2000475100, SRAE_X000035700, SRAE_0000039300, SPAL_0000773400.1, SPAL_0001017900.1, SPAL_0001555900.1, SPAL_0001378000.1, SPAL_0000639600.1, SPAL_0000970300.1, SPAL_0000647700.1, SPAL_0000156000.1, SPAL_0000270900.1, SPAL_0000172800.1, SPAL_0000729200.1, SPAL_0000647800.1, SPAL_0000155200.1, SPAL_0000887800.1, SPAL_0000050400.1, SPAL_0001272100.1, SPAL_0001596100.1, SPAL_0000743800.1, SPAL_0001484600.1, SPAL_0001068000.1, SPAL_0001554100.1, SPAL_0000969400.1, SPAL_0001737700.1, SPAL_0001480900.1, SPAL_0001648400.1, SPAL_0000771100.1, SPAL_0001736500.1, SPAL_0001415400.1, SPAL_0001024600.1, SPAL_0000610100.1, SPAL_0001270000.1, SPAL_0001005300.1, SPAL_0001415000.1, SPAL_0000079000.1, SPAL_0000630800.1, SPAL_0000373900.1, SPAL_0001075500.1, SPAL_0000636000.1, SPAL_0000677500.1, SPAL_0001649600.2, SPAL_0000678400.1, SPAL_0000518900.1, SPAL_0000468400.3, SPAL_0000331100.1, SVE_0452900.1, SVE_1014900.1, SVE_0066500.1, SVE_1617200.1, SVE_0528500.1, SVE_1895500.1, SVE_1812700.1, SVE_0526300.1, SVE_1866000.1, SVE_0450600.1, SVE_0506800.1, SVE_0525400.1, SVE_0581800.1, SVE_0056400.1, SVE_1015700.1, SVE_0000542450.1, SVE_1653000.1, SVE_0367200.1, SVE_1716400.1, SVE_1938900.1, SVE_1021400.1, SVE_0855300.1, SVE_0615900.1, SVE_0936800.1, SVE_0018500.1, SVE_1812800.1, SVE_1722600.1, SVE_1846100.1, SVE_1622100.1, SVE_1846300.1, SVE_0500100.1, SVE_0572700.1, SVE_0113100.1, SVE_0580800.1, SVE_0717100.2, SVE_1759800.1, SVE_1603700.1, SVE_0071400.1, SVE_0187700.1, SVE_0569300.1, SVE_1884000.1, SVE_1005200.1, SVE_1275600.1, SVE_1621000.1, SVE_0012800.1, SVE_0076400.1, SVE_0519800.1, SVE_0000100.1, W09C5.6b, B0513.3b, C42C1.14, F54E7.2, Y71A12B.1c, E04A4.8, F55D10.2, F53A3.3b, B0393.1, F56F3.5, C27A2.2a, Y43B11AR.4, D1007.12, Y37E3.7, H06I04.4a, F55G1.3, M03F4.2b, T04C12.4, T04C12.6, T08B2.10, F42C5.8b, Y105E8B.1n, C36E6.3, F17E9.9, F35H10.11, JC8.3a, B0336.10, C23G10.3, M163.3, F45F2.2, F07A5.7b, F37C12.11, C01B10.5c, K11H12.2, F39B2.6, F07D10.1, R13A5.8, C36E6.5, ZC434.2, ZK721.2, C16A3.9, F25H2.10, C47B2.3, F11C3.3, F09F7.2a, F28C6.7a, T05E11.1, B0041.4, T22E5.5, F10E7.7, F13B10.2a, Y41D4B.5, F45F2.13, C09H10.2, Y62E10A.1, F37C12.9, Y48B6A.2, Y24D9A.4, C14B9.7, F54E12.4, H02I12.6, D1007.6, Y106G6H.3c, K04D7.1, B0412.4, F56E10.4, F53G12.10, T10C6.13, ZK1010.1, K03A1.1, F07B7.5, K06C4.13, F40F11.1, K06C4.5, B0035.7, F54E12.5a, H02I12.7, C26F1.4, W09H1.2, T04C12.5, B0035.8, F08G2.1, ZK131.5, ZK131.9, F54C9.5, Y45F10D.12, C06B8.8, F07B7.4, F07B7.11, K06C4.4, K06C4.12, C49H3.11, F45F2.12, F17E9.10, Y37E3.8b, C56C10.8, Y57G11C.16, F37C12.4, Y49E10.6a, F22F1.1, R11D1.8, F10B5.1, R151.3, F55G1.2, Y71F9AL.13b, C04G2.4, ZK652.4, B0250.1, T24B8.1a, Y105E8A.16, C32E8.2a, F36A2.6, C53H9.1, F45F2.3, F45F2.4, T10C6.11, F28H1.2, F07B7.9, K06C4.2, C04F12.4, C26F1.9, F07B7.3, F07B7.10, K06C4.3, K06C4.11, C38C3.5, F17E9.13, F35H10.1, C36E8.5, F08G2.2, ZK131.6, ZK131.10, T13F2.10, T25C8.2, K06C4.10, ZK354.1, Y59E9AR.1, Y59E9AR.7, R06C7.10, T05F1.3, K07F5.3, T01C3.6, T05D4.1, M28.5, M01F1.2, T18D3.4, F40F8.10, F32B6.6, F52B5.6, F26E4.8b, F54C1.7, W01D2.1, T23D8.6, W08E12.7, ZK354.4, T13F2.11, R08C7.3, T22F3.4b, Y48G8AL.8, C54C6.1, F36H12.7, ZK1251.6, F53A9.10, C33F10.9, K07F5.2, K08F4.8, K12F2.1, T26A5.9, Y73B6BL.9a, ZK354.11, F57B9.6b, Y71F9B.4, T08B1.2a, B0035.9, F54E12.3, F55G1.11, C09D4.5, F55G1.10, ZK354.5, T10C6.12, C09B9.6, F22B3.2, C37A2.7, R13H9.4, K01G5.4, F08F1.8, B0035.10, F54E12.1, T10C6.14, ZK131.2, ZK131.3, ZK131.7, F08G2.3, R13H9.2, K02B2.5, C09B8.6c, K01G5.7, F22B3.1, K03A1.6, F28D1.7a, R05F9.13, W03F8.1</t>
-  </si>
-  <si>
-    <t>SSTP_0000552200.1, SSTP_0000765700.1, SSTP_0001179400.1, SSTP_0000154300.1, SSTP_0000042700.1, SSTP_0001114600.1, SSTP_0000258700.1, SSTP_0000629300.2, SSTP_0000890100.1, SSTP_0000530400.1, SSTP_0000087500.1, SSTP_0000472100.1, SSTP_0000127500.1, SSTP_0000622400.1, SSTP_0000748800.1, SSTP_0000556800.1, SSTP_0000102800.1, SSTP_0000052900.1, SSTP_0000611200.1, SSTP_0000044100.1, SSTP_0000297800.1, SSTP_0000273500.1, SSTP_0000119100.1, SSTP_0000143400.1, SSTP_0000286800.1, SSTP_0000339800.1, SSTP_0000510400.1, SSTP_0000147300.1, SSTP_0000079900.1, SSTP_0001004100.1, SSTP_0000947900.1, SSTP_0000930900.1, SSTP_0000340000.1, SSTP_0001085200.1, SSTP_0000870600.1, SSTP_0000477900.1, SRAE_1000338900, SRAE_2000138400, SRAE_2000018050, SRAE_X000224800, SRAE_2000434700, SRAE_2000439500, SRAE_2000145200, SRAE_2000174400, SRAE_2000126900, SRAE_2000098100, SRAE_2000001900, SRAE_1000074900, SRAE_2000157400, SRAE_X000071300, SRAE_X000135300, SRAE_1000188900, SRAE_X000003700, SRAE_X000008400, SRAE_2000385900, SRAE_2000100300, SRAE_2000323200, SRAE_2000399200, SRAE_1000268100, SRAE_X000035700, SRAE_1000243600, SRAE_0000039300, SPAL_0001683300.1, SPAL_0000773400.1, SPAL_0001503400.1, SPAL_0001132600.1, SPAL_0001378000.1, SPAL_0000639600.1, SPAL_0000970300.1, SPAL_0000156000.1, SPAL_0001588600.1, SPAL_0000270900.1, SPAL_0000172800.1, SPAL_0000729200.1, SPAL_0000155200.1, SPAL_0001432100.1, SPAL_0000887800.1, SPAL_0000050400.1, SPAL_0001272100.1, SPAL_0001596100.1, SPAL_0001698300.1, SPAL_0000314000.1, SPAL_0000743800.1, SPAL_0000016800.1, SPAL_0000431600.1, SPAL_0001385500.1, SPAL_0001484600.1, SPAL_0001554100.1, SPAL_0000924800.1, SPAL_0000969400.1, SPAL_0001737700.1, SPAL_0001480900.1, SPAL_0001648400.1, SPAL_0000771100.1, SPAL_0001736500.1, SPAL_0001415400.1, SPAL_0001024600.1, SPAL_0000610100.1, SPAL_0001270000.1, SPAL_0001005300.1, SPAL_0001415000.1, SPAL_0001376300.1, SPAL_0000630800.1, SPAL_0000636000.1, SPAL_0000840300.1, SPAL_0000677500.1, SPAL_0001649600.2, SPAL_0000678400.1, SPAL_0000518900.1, SPAL_0000331100.1, SVE_1804800.1, SVE_0452900.1, SVE_1014900.1, SVE_0119200.1, SVE_0209400.1, SVE_0066500.1, SVE_1617200.1, SVE_0528500.1, SVE_1895500.1, SVE_0526300.1, SVE_1866000.1, SVE_0450600.1, SVE_0525400.1, SVE_0275000.1, SVE_0581800.1, SVE_1015700.1, SVE_0000542450.1, SVE_0367200.1, SVE_1716400.1, SVE_0029100.1, SVE_1938900.1, SVE_1021400.1, SVE_0577600.1, SVE_0855300.1, SVE_0786800.1, SVE_0936800.1, SVE_0018500.1, SVE_1586200.1, SVE_1722600.1, SVE_1846100.1, SVE_1622100.1, SVE_1846300.1, SVE_0500100.1, SVE_0572700.1, SVE_1856000.1, SVE_0123700.1, SVE_0983000.1, SVE_0580800.1, SVE_1603700.1, SVE_0187700.1, SVE_0569300.1, SVE_1884000.1, SVE_1005200.1, SVE_1275600.1, SVE_1621000.1, SVE_0012800.1, SVE_0228000.1, B0222.6, B0222.8, W09C5.6b, B0513.3b, C42C1.14, F54E7.2, Y71A12B.1c, F23H12.4b, E04A4.8, T07H6.3, F55D10.2, T28C6.4, T28C6.6, F53A3.3b, B0393.1, W05B2.1, F56F3.5, F53F1.5, C29F4.1, C27A2.2a, W05B2.5, T10E10.2, Y43B11AR.4, D1007.12, Y37E3.7, B0222.7, H06I04.4a, F27C1.8, W05B2.6, M03F4.2b, T10E10.1, T04C12.6, F38A3.2, T08B2.10, F42C5.8b, F57B1.4, T10E10.6, T10E10.5, JC8.3a, B0336.10, F30B5.1, F57B1.3, C23G10.3, F11G11.12, F37C12.11, K11H12.2, F39B2.6, Y41E3.2, F07D10.1, R13A5.8, ZC434.2, F26F12.1, C16A3.9, F25H2.10, C09G5.5, C47B2.3, F11C3.3, F08G5.4, F28C6.7a, T05E11.1, ZC373.7, B0041.4, F10E7.7, F13B10.2a, Y41D4B.5, C09H10.2, M18.1b, F38A3.1, Y62E10A.1, C34H4.4, F37C12.9, C53B4.5, Y48B6A.2, C14B9.7, D1007.6, F55C10.2, Y106G6H.3c, B0412.4, W03G11.1b, F56E10.4, F53G12.10, ZK1010.1, F40F11.1, T06E4.6, F15H10.1, C26F1.4, F54C9.5, Y45F10D.12, T13B5.4, C06B8.8, C49H3.11, F55C10.3, C52D10.13, B0491.2, Y37E3.8b, F54D1.2, F54D1.3, C44C10.1, C09G5.4, Y57G11C.16, F37C12.4, R11D1.8, F10B5.1, R151.3, ZK1193.1, F54D8.1, F11G11.11, Y71F9AL.13b, T15B7.4, ZK652.4, B0250.1, T11F9.9, T24B8.1a, Y105E8A.16, C24F3.6, C32E8.2a, F36A2.6, T06E4.4, M195.1, C53H9.1, F15H10.2, ZC513.8, C04F12.4, C26F1.9, C36E8.5, C34F6.2, F54C9.4, R06C7.10, T05F1.3, T05A1.2, T01C3.6, M01F1.2, T15B7.3, F40F8.10, F52B5.6, K12D12.3, F26E4.8b, F52B11.4, F54C1.7, W01D2.1, Y2H9A.3, T22F3.4b, Y48G8AL.8, C54C6.1, F14H12.1, C09D4.5, C47G2.1, C50B6.4, C37A2.7, K02B2.5, C34F6.3, F41F3.4, K01G5.7, C29E4.1, T10B10.1, F28D1.7a, D2023.7, F15A2.1b, ZK1248.2, W01B6.7</t>
-  </si>
-  <si>
-    <t>SSTP_0000154300.1, SSTP_0001114600.1, SSTP_0000258700.1, SSTP_0000530400.1, SSTP_0000087500.1, SSTP_0000472100.1, SSTP_0000622400.1, SSTP_0000556800.1, SSTP_0000102800.1, SSTP_0000044100.1, SSTP_0000273500.1, SSTP_0000286800.1, SSTP_0000510400.1, SSTP_0000147300.1, SSTP_0000079900.1, SSTP_0000870600.1, SSTP_0000477900.1, SRAE_X000224800, SRAE_2000434700, SRAE_2000439500, SRAE_2000145200, SRAE_2000126900, SRAE_2000157400, SRAE_X000135300, SRAE_1000188900, SRAE_X000003700, SRAE_X000008400, SRAE_2000385900, SRAE_2000399200, SRAE_1000268100, SRAE_1000243600, SPAL_0001683300.1, SPAL_0001503400.1, SPAL_0001132600.1, SPAL_0001588600.1, SPAL_0001432100.1, SPAL_0001698300.1, SPAL_0000314000.1, SPAL_0000016800.1, SPAL_0000431600.1, SPAL_0001385500.1, SPAL_0000924800.1, SPAL_0001376300.1, SPAL_0000840300.1, SVE_1804800.1, SVE_0119200.1, SVE_0209400.1, SVE_0275000.1, SVE_0029100.1, SVE_0577600.1, SVE_0786800.1, SVE_1586200.1, SVE_1856000.1, SVE_0123700.1, SVE_0983000.1, SVE_0228000.1, B0222.6, B0222.8, F23H12.4b, T07H6.3, T28C6.4, T28C6.6, W05B2.1, F53F1.5, C29F4.1, W05B2.5, T10E10.2, B0222.7, F27C1.8, W05B2.6, T10E10.1, F38A3.2, F57B1.4, T10E10.6, T10E10.5, F30B5.1, F57B1.3, F11G11.12, Y41E3.2, F26F12.1, C09G5.5, F08G5.4, ZC373.7, M18.1b, F38A3.1, C34H4.4, C53B4.5, F55C10.2, W03G11.1b, T06E4.6, F15H10.1, T13B5.4, F55C10.3, C52D10.13, B0491.2, F54D1.2, F54D1.3, C44C10.1, C09G5.4, ZK1193.1, F54D8.1, F11G11.11, T15B7.4, T11F9.9, C24F3.6, T06E4.4, M195.1, F15H10.2, ZC513.8, C34F6.2, F54C9.4, T05A1.2, T15B7.3, K12D12.3, F52B11.4, Y2H9A.3, F14H12.1, C47G2.1, C50B6.4, C34F6.3, F41F3.4, C29E4.1, T10B10.1, D2023.7, F15A2.1b, ZK1248.2, W01B6.7</t>
-  </si>
-  <si>
-    <t>SSTP_0000274400, SSTP_0001149800, SSTP_0000385400, SSTP_0000984600, SSTP_0001126300, SSTP_0000967000, SSTP_0001126500, SSTP_0000364910, SSTP_0000493100</t>
-  </si>
-  <si>
-    <t>SSTP_0000274400, SSTP_0000485900, SSTP_0000705700, SSTP_0001133300, SSTP_0001222300, SSTP_0001133200, SSTP_0000700900, SSTP_0000701300, SSTP_0000700800, SSTP_0000701400, SSTP_0001108300, SSTP_0000967000</t>
-  </si>
-  <si>
-    <t>SSTP_0000274400, SSTP_0001149800, SSTP_0000984600, SSTP_0001126300, SSTP_0000967000, SSTP_0001126500, SSTP_0000364910, SSTP_0000493100</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000823300, SSTP_0000119100, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000269800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000978600, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000992800, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0000239700, SSTP_0001066000, SSTP_0001049900, SSTP_0001244400, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0001046300, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000076400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000042400, SSTP_0000596100, SSTP_0001096000, SSTP_0000127700, SSTP_0000930100, SSTP_0000634900, SSTP_0001171150, SSTP_0000304700, SSTP_0001003800, SSTP_0001181600, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0000304700, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000823300, SSTP_0000428100, SSTP_0000556300, SSTP_0000239700, SSTP_0000076400, SSTP_0001181600</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0000304700, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000341900, SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000614100, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0001106900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000696700, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000999900, SSTP_0000305100, SSTP_0000893000, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000346800, SSTP_0000298300, SSTP_0000777200, SSTP_0000054200, SSTP_0000228600, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000780500, SSTP_0000127700, SSTP_0000163100, SSTP_0000930100, SSTP_0000987900, SSTP_0001171150, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000823300, SSTP_0000119100, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001168700, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0001170200, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0000239700, SSTP_0001066000, SSTP_0001049900, SSTP_0000096500, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000076400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000011200, SSTP_0000140700, SSTP_0000911300, SSTP_0000930100, SSTP_0001171150, SSTP_0000304700, SSTP_0001003800, SSTP_0001181600, SSTP_0000393800, SSTP_0001138700, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0001003800, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000823300, SSTP_0000119100, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0000239700, SSTP_0001066000, SSTP_0001049900, SSTP_0001244400, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000076400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0001096000, SSTP_0000127700, SSTP_0000930100, SSTP_0000634900, SSTP_0001171150, SSTP_0000304700, SSTP_0001003800, SSTP_0001181600, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000893000, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000346800, SSTP_0000298300, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000780500, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000823300, SSTP_0000119100, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0000239700, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000076400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0000304700, SSTP_0001003800, SSTP_0001181600, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000823300, SSTP_0000428100, SSTP_0001168700, SSTP_0000556300, SSTP_0000096500, SSTP_0000076400, SSTP_0000140700, SSTP_0000911300, SSTP_0001244100, SSTP_0001181600, SSTP_0001138700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000341900, SSTP_0000823300, SSTP_0000119100, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000614100, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001168700, SSTP_0001173900, SSTP_0000297800, SSTP_0000269800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0000239700, SSTP_0001066000, SSTP_0001049900, SSTP_0000096500, SSTP_0001106900, SSTP_0001244400, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000696700, SSTP_0000427500, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000999900, SSTP_0000305100, SSTP_0000893000, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000076400, SSTP_0000346800, SSTP_0000816100, SSTP_0000298300, SSTP_0000777200, SSTP_0000054200, SSTP_0000228600, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000780500, SSTP_0000127700, SSTP_0000163100, SSTP_0000140700, SSTP_0000911300, SSTP_0000930100, SSTP_0000987900, SSTP_0000634900, SSTP_0001171150, SSTP_0001003800, SSTP_0001181600, SSTP_0000393800, SSTP_0001138700, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000823300, SSTP_0000119100, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000269800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0000239700, SSTP_0001066000, SSTP_0001049900, SSTP_0001244400, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000076400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0000634900, SSTP_0001171150, SSTP_0001003800, SSTP_0001181600, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000387200, SSTP_0000718800, SSTP_0000823300, SSTP_0000119100, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000269800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000978600, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000759000, SSTP_0001004100, SSTP_0000992800, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000395000, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000412300, SSTP_0000344100, SSTP_0000239700, SSTP_0001066000, SSTP_0001049900, SSTP_0001244400, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000076400, SSTP_0000346800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000042400, SSTP_0000596100, SSTP_0001096000, SSTP_0000127700, SSTP_0000930100, SSTP_0000634900, SSTP_0001171150, SSTP_0000304700, SSTP_0001003800, SSTP_0001181600, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000208900, SSTP_0000823300, SSTP_0000119100, SSTP_0000151300, SSTP_0000428100, SSTP_0001085200, SSTP_0000339800, SSTP_0000730000, SSTP_0000920600, SSTP_0000518600, SSTP_0001106300, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000314800, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0000680600, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0000746900, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000753500, SSTP_0000909200, SSTP_0000760300, SSTP_0000800500, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000556300, SSTP_0000264100, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000145100, SSTP_0001045500, SSTP_0000344100, SSTP_0000011100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000255500, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000299600, SSTP_0000798300, SSTP_0000960300, SSTP_0000086600, SSTP_0000305100, SSTP_0000369400, SSTP_0000570000, SSTP_0000460300, SSTP_0000040000, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000112200, SSTP_0000416100, SSTP_0000153100, SSTP_0000076400, SSTP_0000442700, SSTP_0000172800, SSTP_0000960700, SSTP_0000777200, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000214400, SSTP_0000127700, SSTP_0000765200, SSTP_0000651000, SSTP_0000229000, SSTP_0000911300, SSTP_0000930100, SSTP_0000122700, SSTP_0000758700, SSTP_0001171150, SSTP_0000304700, SSTP_0000724400, SSTP_0001181600, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000208900, SSTP_0000151300, SSTP_0000730000, SSTP_0000920600, SSTP_0001106300, SSTP_0000657600, SSTP_0000694000, SSTP_0000314800, SSTP_0000680600, SSTP_0001173900, SSTP_0000746900, SSTP_0000753500, SSTP_0000611200, SSTP_0000255500, SSTP_0000299600, SSTP_0000086600, SSTP_0000369400, SSTP_0000570000, SSTP_0000460300, SSTP_0000040000, SSTP_0000416100, SSTP_0000076400, SSTP_0000442700, SSTP_0000172800, SSTP_0000960700, SSTP_0000214400, SSTP_0000651000, SSTP_0000229000, SSTP_0000911300, SSTP_0000122700, SSTP_0000758700, SSTP_0000724400</t>
-  </si>
-  <si>
-    <t>SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000730000, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000800500, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000299600, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0001085200, SSTP_0000730000, SSTP_0001173900, SSTP_0000890100, SSTP_0000611200, SSTP_0000980000, SSTP_0000251100, SSTP_0000340000, SSTP_0001049900, SSTP_0000299600</t>
-  </si>
-  <si>
-    <t>SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000158900, SSTP_0000297800, SSTP_0000725500, SSTP_0000909200, SSTP_0000331900, SSTP_0000058600</t>
-  </si>
-  <si>
-    <t>SSTP_0000730000, SSTP_0000657600, SSTP_0000694000, SSTP_0001173900, SSTP_0000611200, SSTP_0000299600</t>
-  </si>
-  <si>
-    <t>SSTP_0000823300, SSTP_0000428100, SSTP_0001085200, SSTP_0000730000, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000158900, SSTP_0001173900, SSTP_0000297800, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000611200, SSTP_0000980000, SSTP_0000251100, SSTP_0000950200, SSTP_0000556300, SSTP_0000264100, SSTP_0000331900, SSTP_0000340000, SSTP_0000145100, SSTP_0001045500, SSTP_0000011100, SSTP_0001049900, SSTP_0000058600, SSTP_0000299600, SSTP_0000305100, SSTP_0000369400, SSTP_0000570000, SSTP_0000040000, SSTP_0000112200, SSTP_0000076400, SSTP_0000442700, SSTP_0000777200, SSTP_0000725900, SSTP_0000911300, SSTP_0001244100, SSTP_0000304700, SSTP_0000724400, SSTP_0001181600</t>
-  </si>
-  <si>
-    <t>SSTP_0000208900, SSTP_0000119100, SSTP_0000151300, SSTP_0001085200, SSTP_0000339800, SSTP_0000730000, SSTP_0000920600, SSTP_0000518600, SSTP_0001106300, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000314800, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0000746900, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000753500, SSTP_0000909200, SSTP_0000760300, SSTP_0000800500, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000264100, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000145100, SSTP_0001045500, SSTP_0000344100, SSTP_0000011100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000255500, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000299600, SSTP_0000798300, SSTP_0000960300, SSTP_0000086600, SSTP_0000570000, SSTP_0000460300, SSTP_0000040000, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000112200, SSTP_0000416100, SSTP_0000153100, SSTP_0000076400, SSTP_0000442700, SSTP_0000172800, SSTP_0000960700, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000765200, SSTP_0000930100, SSTP_0000758700, SSTP_0001171150, SSTP_0000304700, SSTP_0000724400, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000208900, SSTP_0000119100, SSTP_0000151300, SSTP_0001085200, SSTP_0000339800, SSTP_0000730000, SSTP_0000920600, SSTP_0000518600, SSTP_0001106300, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000314800, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000800500, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000264100, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000145100, SSTP_0001045500, SSTP_0000344100, SSTP_0000011100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000299600, SSTP_0000798300, SSTP_0000960300, SSTP_0000040000, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000112200, SSTP_0000442700, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0000758700, SSTP_0001171150, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0001085200, SSTP_0000730000, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000158900, SSTP_0001173900, SSTP_0000297800, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000611200, SSTP_0000980000, SSTP_0000251100, SSTP_0000331900, SSTP_0000340000, SSTP_0001049900, SSTP_0000058600, SSTP_0000299600</t>
-  </si>
-  <si>
-    <t>SSTP_0000823300, SSTP_0000428100, SSTP_0000556300, SSTP_0000076400, SSTP_0001181600</t>
-  </si>
-  <si>
-    <t>SSTP_0000119100, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0000909200, SSTP_0000760300, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000344100, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000299600, SSTP_0000798300, SSTP_0000960300, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000930100, SSTP_0001171150, SSTP_0000393800, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>SSTP_0000510400, SSTP_0000119100, SSTP_0000151300, SSTP_0000258700, SSTP_0001085200, SSTP_0000339800, SSTP_0000518600, SSTP_0000930900, SSTP_0000657600, SSTP_0000606100, SSTP_0000694000, SSTP_0000801100, SSTP_0000208100, SSTP_0000314800, SSTP_0000552200, SSTP_0001179400, SSTP_0000213300, SSTP_0000158900, SSTP_0001003100, SSTP_0001173900, SSTP_0000297800, SSTP_0000936200, SSTP_0001184700, SSTP_0000028200, SSTP_0000725500, SSTP_0000890100, SSTP_0001114600, SSTP_0000909200, SSTP_0000760300, SSTP_0000611200, SSTP_0000980000, SSTP_0000317500, SSTP_0000251100, SSTP_0000838500, SSTP_0000950200, SSTP_0001004100, SSTP_0000587500, SSTP_0000051200, SSTP_0000895300, SSTP_0000122900, SSTP_0000331900, SSTP_0000340000, SSTP_0000127500, SSTP_0000344100, SSTP_0000530400, SSTP_0001066000, SSTP_0001049900, SSTP_0000756200, SSTP_0000714900, SSTP_0000159800, SSTP_0000774300, SSTP_0000179000, SSTP_0001180700, SSTP_0000042700, SSTP_0001062700, SSTP_0000798000, SSTP_0000058600, SSTP_0000980700, SSTP_0001191200, SSTP_0000242900, SSTP_0000299600, SSTP_0000798300, SSTP_0000960300, SSTP_0000570000, SSTP_0000161200, SSTP_0000143400, SSTP_0000714400, SSTP_0000102800, SSTP_0000395300, SSTP_0000979800, SSTP_0000154600, SSTP_0000596100, SSTP_0000127700, SSTP_0000725900, SSTP_0000930100, SSTP_0000758700, SSTP_0001171150, SSTP_0000393800, SSTP_0000926500, SSTP_0000765700</t>
-  </si>
-  <si>
-    <t>Contributing Genes</t>
+    <t xml:space="preserve"> File S5. GO terms significantly enriched in genes that are highly expressed in free-living females</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> File S5. GO terms significantly enriched in genes that are poorly expressed in free-living females</t>
   </si>
 </sst>
 </file>
@@ -613,13 +666,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -921,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,20 +984,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="A1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -960,63 +1010,63 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1032,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,20 +1095,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1085,817 +1539,539 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="184.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L41"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
